--- a/tabla_composicion_taxonomica.xlsx
+++ b/tabla_composicion_taxonomica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K309"/>
+  <dimension ref="A1:M309"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Gremio tróo</t>
+          <t>Gremio trófico</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -481,10 +481,20 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>Bfvs</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Bgr</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>Abundancia</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Tipo de registro</t>
         </is>
@@ -521,7 +531,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Carnívoro</t>
+          <t>Car</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -531,9 +541,15 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2</v>
-      </c>
-      <c r="K2" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>2</v>
+      </c>
+      <c r="M2" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -570,7 +586,7 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Carnívoro</t>
+          <t>Car</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -580,9 +596,15 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2</v>
-      </c>
-      <c r="K3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2</v>
+      </c>
+      <c r="M3" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -619,7 +641,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Carnívoro</t>
+          <t>Car</t>
         </is>
       </c>
       <c r="H4" t="n">
@@ -629,9 +651,15 @@
         <v>1</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -668,7 +696,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Carnívoro</t>
+          <t>Car</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -678,9 +706,15 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -717,7 +751,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Carnívoro</t>
+          <t>Car</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -727,9 +761,15 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
-      </c>
-      <c r="K6" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>2</v>
+      </c>
+      <c r="M6" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -766,7 +806,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Carnívoro</t>
+          <t>Car</t>
         </is>
       </c>
       <c r="H7" t="n">
@@ -776,9 +816,15 @@
         <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -815,7 +861,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Carnívoro</t>
+          <t>Car</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -825,9 +871,15 @@
         <v>4</v>
       </c>
       <c r="J8" t="n">
+        <v>5</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>22</v>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>Aud, Fot, Obs</t>
         </is>
@@ -864,7 +916,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Carnívoro</t>
+          <t>Car</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -874,9 +926,15 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>17</v>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -913,7 +971,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Carnívoro</t>
+          <t>Car</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -923,9 +981,15 @@
         <v>1</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
-      </c>
-      <c r="K10" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
+      <c r="M10" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -962,7 +1026,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H11" t="n">
@@ -972,9 +1036,15 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
         <v>6</v>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -1011,7 +1081,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1021,9 +1091,15 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
         <v>4</v>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -1060,7 +1136,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -1070,9 +1146,15 @@
         <v>2</v>
       </c>
       <c r="J13" t="n">
+        <v>1</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
         <v>3</v>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -1109,7 +1191,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H14" t="n">
@@ -1119,9 +1201,15 @@
         <v>9</v>
       </c>
       <c r="J14" t="n">
+        <v>1</v>
+      </c>
+      <c r="K14" t="n">
+        <v>4</v>
+      </c>
+      <c r="L14" t="n">
         <v>31</v>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>Aud, Fot, Obs</t>
         </is>
@@ -1158,7 +1246,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H15" t="n">
@@ -1168,9 +1256,15 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
-      </c>
-      <c r="K15" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -1207,7 +1301,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H16" t="n">
@@ -1217,9 +1311,15 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1</v>
-      </c>
-      <c r="K16" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -1256,7 +1356,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1266,9 +1366,15 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2</v>
-      </c>
-      <c r="K17" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -1305,7 +1411,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1315,9 +1421,15 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
-      </c>
-      <c r="K18" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>2</v>
+      </c>
+      <c r="M18" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -1354,7 +1466,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H19" t="n">
@@ -1364,9 +1476,15 @@
         <v>2</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
-      </c>
-      <c r="K19" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
+      <c r="M19" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -1403,7 +1521,7 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H20" t="n">
@@ -1415,7 +1533,13 @@
       <c r="J20" t="n">
         <v>1</v>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -1452,7 +1576,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H21" t="n">
@@ -1462,9 +1586,15 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -1501,7 +1631,7 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H22" t="n">
@@ -1511,9 +1641,15 @@
         <v>3</v>
       </c>
       <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
         <v>3</v>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>Obs</t>
         </is>
@@ -1550,7 +1686,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -1560,9 +1696,15 @@
         <v>8</v>
       </c>
       <c r="J23" t="n">
+        <v>16</v>
+      </c>
+      <c r="K23" t="n">
+        <v>2</v>
+      </c>
+      <c r="L23" t="n">
         <v>32</v>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -1599,7 +1741,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H24" t="n">
@@ -1609,9 +1751,15 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1</v>
-      </c>
-      <c r="K24" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -1648,7 +1796,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H25" t="n">
@@ -1658,9 +1806,15 @@
         <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -1697,7 +1851,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H26" t="n">
@@ -1707,9 +1861,15 @@
         <v>5</v>
       </c>
       <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
         <v>7</v>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -1746,7 +1906,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H27" t="n">
@@ -1756,9 +1916,15 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -1795,7 +1961,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H28" t="n">
@@ -1805,9 +1971,15 @@
         <v>1</v>
       </c>
       <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
         <v>4</v>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -1844,7 +2016,7 @@
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H29" t="n">
@@ -1854,9 +2026,15 @@
         <v>1</v>
       </c>
       <c r="J29" t="n">
+        <v>2</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
         <v>3</v>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -1893,7 +2071,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -1903,9 +2081,15 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
         <v>6</v>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>Fot, Obs</t>
         </is>
@@ -1942,7 +2126,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H31" t="n">
@@ -1952,9 +2136,15 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
-      </c>
-      <c r="K31" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -1991,7 +2181,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H32" t="n">
@@ -2001,9 +2191,15 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2</v>
-      </c>
-      <c r="K32" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>2</v>
+      </c>
+      <c r="M32" t="inlineStr">
         <is>
           <t>Cap</t>
         </is>
@@ -2040,7 +2236,7 @@
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H33" t="n">
@@ -2050,9 +2246,15 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
-      </c>
-      <c r="K33" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -2089,7 +2291,7 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H34" t="n">
@@ -2099,9 +2301,15 @@
         <v>2</v>
       </c>
       <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>4</v>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>Obs</t>
         </is>
@@ -2138,7 +2346,7 @@
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H35" t="n">
@@ -2148,9 +2356,15 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
-      </c>
-      <c r="K35" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -2187,7 +2401,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H36" t="n">
@@ -2197,9 +2411,15 @@
         <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -2236,7 +2456,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H37" t="n">
@@ -2246,9 +2466,15 @@
         <v>2</v>
       </c>
       <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>5</v>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -2285,7 +2511,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H38" t="n">
@@ -2295,9 +2521,15 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>2</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>3</v>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -2334,7 +2566,7 @@
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H39" t="n">
@@ -2344,9 +2576,15 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>2</v>
-      </c>
-      <c r="K39" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>2</v>
+      </c>
+      <c r="M39" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -2383,7 +2621,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Carroñero</t>
+          <t>Crr</t>
         </is>
       </c>
       <c r="H40" t="n">
@@ -2393,9 +2631,15 @@
         <v>4</v>
       </c>
       <c r="J40" t="n">
+        <v>2</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" t="n">
         <v>18</v>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>Fot, Obs</t>
         </is>
@@ -2432,7 +2676,7 @@
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Carroñero</t>
+          <t>Crr</t>
         </is>
       </c>
       <c r="H41" t="n">
@@ -2442,9 +2686,15 @@
         <v>28</v>
       </c>
       <c r="J41" t="n">
+        <v>8</v>
+      </c>
+      <c r="K41" t="n">
+        <v>5</v>
+      </c>
+      <c r="L41" t="n">
         <v>114</v>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>Aud, Fot, Obs</t>
         </is>
@@ -2481,7 +2731,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H42" t="n">
@@ -2491,9 +2741,15 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
-      </c>
-      <c r="K42" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
+        <v>2</v>
+      </c>
+      <c r="M42" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -2530,7 +2786,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Granívoro</t>
+          <t>Gra</t>
         </is>
       </c>
       <c r="H43" t="n">
@@ -2540,9 +2796,15 @@
         <v>11</v>
       </c>
       <c r="J43" t="n">
+        <v>2</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>23</v>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -2579,7 +2841,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Granívoro</t>
+          <t>Gra</t>
         </is>
       </c>
       <c r="H44" t="n">
@@ -2589,9 +2851,15 @@
         <v>13</v>
       </c>
       <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1</v>
+      </c>
+      <c r="L44" t="n">
         <v>35</v>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>Aud, Fot, Vid</t>
         </is>
@@ -2628,7 +2896,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Granívoro</t>
+          <t>Gra</t>
         </is>
       </c>
       <c r="H45" t="n">
@@ -2638,9 +2906,15 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
+        <v>4</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
         <v>30</v>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -2677,7 +2951,7 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Granívoro</t>
+          <t>Gra</t>
         </is>
       </c>
       <c r="H46" t="n">
@@ -2687,9 +2961,15 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
+        <v>4</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
         <v>10</v>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -2726,7 +3006,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H47" t="n">
@@ -2736,9 +3016,15 @@
         <v>0</v>
       </c>
       <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0</v>
+      </c>
+      <c r="L47" t="n">
         <v>6</v>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -2775,7 +3061,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H48" t="n">
@@ -2785,9 +3071,15 @@
         <v>10</v>
       </c>
       <c r="J48" t="n">
+        <v>8</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0</v>
+      </c>
+      <c r="L48" t="n">
         <v>74</v>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>Aud, Fot, Obs</t>
         </is>
@@ -2824,7 +3116,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Granívoro</t>
+          <t>Gra</t>
         </is>
       </c>
       <c r="H49" t="n">
@@ -2834,9 +3126,15 @@
         <v>0</v>
       </c>
       <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>0</v>
+      </c>
+      <c r="L49" t="n">
         <v>4</v>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -2873,7 +3171,7 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>Granívoro</t>
+          <t>Gra</t>
         </is>
       </c>
       <c r="H50" t="n">
@@ -2883,9 +3181,15 @@
         <v>0</v>
       </c>
       <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
         <v>5</v>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -2922,7 +3226,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Granívoro</t>
+          <t>Gra</t>
         </is>
       </c>
       <c r="H51" t="n">
@@ -2932,9 +3236,15 @@
         <v>10</v>
       </c>
       <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
         <v>15</v>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>Fot, Vid</t>
         </is>
@@ -2971,7 +3281,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H52" t="n">
@@ -2981,9 +3291,15 @@
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>1</v>
-      </c>
-      <c r="K52" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>0</v>
+      </c>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr">
         <is>
           <t>Obs</t>
         </is>
@@ -3020,7 +3336,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H53" t="n">
@@ -3030,9 +3346,15 @@
         <v>10</v>
       </c>
       <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
         <v>27</v>
       </c>
-      <c r="K53" t="inlineStr">
+      <c r="M53" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -3069,7 +3391,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H54" t="n">
@@ -3079,9 +3401,15 @@
         <v>2</v>
       </c>
       <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
         <v>10</v>
       </c>
-      <c r="K54" t="inlineStr">
+      <c r="M54" t="inlineStr">
         <is>
           <t>Fot, Obs</t>
         </is>
@@ -3118,7 +3446,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H55" t="n">
@@ -3128,9 +3456,15 @@
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>1</v>
-      </c>
-      <c r="K55" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -3167,7 +3501,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H56" t="n">
@@ -3177,9 +3511,15 @@
         <v>0</v>
       </c>
       <c r="J56" t="n">
+        <v>0</v>
+      </c>
+      <c r="K56" t="n">
+        <v>0</v>
+      </c>
+      <c r="L56" t="n">
         <v>5</v>
       </c>
-      <c r="K56" t="inlineStr">
+      <c r="M56" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -3216,7 +3556,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Carnívoro</t>
+          <t>Car</t>
         </is>
       </c>
       <c r="H57" t="n">
@@ -3226,9 +3566,15 @@
         <v>1</v>
       </c>
       <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
         <v>4</v>
       </c>
-      <c r="K57" t="inlineStr">
+      <c r="M57" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -3265,7 +3611,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>Carnívoro</t>
+          <t>Car</t>
         </is>
       </c>
       <c r="H58" t="n">
@@ -3275,9 +3621,15 @@
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2</v>
-      </c>
-      <c r="K58" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K58" t="n">
+        <v>0</v>
+      </c>
+      <c r="L58" t="n">
+        <v>2</v>
+      </c>
+      <c r="M58" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -3314,7 +3666,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>Carnívoro</t>
+          <t>Car</t>
         </is>
       </c>
       <c r="H59" t="n">
@@ -3324,9 +3676,15 @@
         <v>0</v>
       </c>
       <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
         <v>3</v>
       </c>
-      <c r="K59" t="inlineStr">
+      <c r="M59" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -3363,7 +3721,7 @@
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H60" t="n">
@@ -3373,9 +3731,15 @@
         <v>1</v>
       </c>
       <c r="J60" t="n">
-        <v>1</v>
-      </c>
-      <c r="K60" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -3412,7 +3776,7 @@
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H61" t="n">
@@ -3422,9 +3786,15 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2</v>
-      </c>
-      <c r="K61" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>2</v>
+      </c>
+      <c r="M61" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -3461,7 +3831,7 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H62" t="n">
@@ -3471,9 +3841,15 @@
         <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>2</v>
-      </c>
-      <c r="K62" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K62" t="n">
+        <v>0</v>
+      </c>
+      <c r="L62" t="n">
+        <v>2</v>
+      </c>
+      <c r="M62" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -3510,7 +3886,7 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H63" t="n">
@@ -3520,9 +3896,15 @@
         <v>4</v>
       </c>
       <c r="J63" t="n">
+        <v>0</v>
+      </c>
+      <c r="K63" t="n">
+        <v>0</v>
+      </c>
+      <c r="L63" t="n">
         <v>6</v>
       </c>
-      <c r="K63" t="inlineStr">
+      <c r="M63" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -3559,7 +3941,7 @@
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H64" t="n">
@@ -3569,9 +3951,15 @@
         <v>0</v>
       </c>
       <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>0</v>
+      </c>
+      <c r="L64" t="n">
         <v>4</v>
       </c>
-      <c r="K64" t="inlineStr">
+      <c r="M64" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -3608,7 +3996,7 @@
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H65" t="n">
@@ -3618,9 +4006,15 @@
         <v>2</v>
       </c>
       <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
         <v>9</v>
       </c>
-      <c r="K65" t="inlineStr">
+      <c r="M65" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -3657,7 +4051,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H66" t="n">
@@ -3667,9 +4061,15 @@
         <v>0</v>
       </c>
       <c r="J66" t="n">
+        <v>2</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
         <v>6</v>
       </c>
-      <c r="K66" t="inlineStr">
+      <c r="M66" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -3706,7 +4106,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H67" t="n">
@@ -3716,9 +4116,15 @@
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
-      </c>
-      <c r="K67" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>0</v>
+      </c>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -3755,7 +4161,7 @@
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H68" t="n">
@@ -3765,9 +4171,15 @@
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>1</v>
-      </c>
-      <c r="K68" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K68" t="n">
+        <v>0</v>
+      </c>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -3804,7 +4216,7 @@
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H69" t="n">
@@ -3814,9 +4226,15 @@
         <v>4</v>
       </c>
       <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
         <v>10</v>
       </c>
-      <c r="K69" t="inlineStr">
+      <c r="M69" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -3853,7 +4271,7 @@
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H70" t="n">
@@ -3863,9 +4281,15 @@
         <v>0</v>
       </c>
       <c r="J70" t="n">
+        <v>0</v>
+      </c>
+      <c r="K70" t="n">
+        <v>0</v>
+      </c>
+      <c r="L70" t="n">
         <v>4</v>
       </c>
-      <c r="K70" t="inlineStr">
+      <c r="M70" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -3902,7 +4326,7 @@
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H71" t="n">
@@ -3912,9 +4336,15 @@
         <v>8</v>
       </c>
       <c r="J71" t="n">
+        <v>0</v>
+      </c>
+      <c r="K71" t="n">
+        <v>2</v>
+      </c>
+      <c r="L71" t="n">
         <v>14</v>
       </c>
-      <c r="K71" t="inlineStr">
+      <c r="M71" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -3951,7 +4381,7 @@
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H72" t="n">
@@ -3961,9 +4391,15 @@
         <v>0</v>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
-      </c>
-      <c r="K72" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>0</v>
+      </c>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -4000,7 +4436,7 @@
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H73" t="n">
@@ -4010,9 +4446,15 @@
         <v>1</v>
       </c>
       <c r="J73" t="n">
+        <v>2</v>
+      </c>
+      <c r="K73" t="n">
+        <v>0</v>
+      </c>
+      <c r="L73" t="n">
         <v>5</v>
       </c>
-      <c r="K73" t="inlineStr">
+      <c r="M73" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -4049,7 +4491,7 @@
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H74" t="n">
@@ -4059,9 +4501,15 @@
         <v>17</v>
       </c>
       <c r="J74" t="n">
+        <v>5</v>
+      </c>
+      <c r="K74" t="n">
+        <v>4</v>
+      </c>
+      <c r="L74" t="n">
         <v>45</v>
       </c>
-      <c r="K74" t="inlineStr">
+      <c r="M74" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -4098,7 +4546,7 @@
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H75" t="n">
@@ -4108,9 +4556,15 @@
         <v>1</v>
       </c>
       <c r="J75" t="n">
-        <v>2</v>
-      </c>
-      <c r="K75" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>0</v>
+      </c>
+      <c r="L75" t="n">
+        <v>2</v>
+      </c>
+      <c r="M75" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -4147,7 +4601,7 @@
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H76" t="n">
@@ -4157,9 +4611,15 @@
         <v>2</v>
       </c>
       <c r="J76" t="n">
-        <v>2</v>
-      </c>
-      <c r="K76" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>0</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2</v>
+      </c>
+      <c r="M76" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -4196,7 +4656,7 @@
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H77" t="n">
@@ -4206,9 +4666,15 @@
         <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2</v>
-      </c>
-      <c r="K77" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K77" t="n">
+        <v>0</v>
+      </c>
+      <c r="L77" t="n">
+        <v>2</v>
+      </c>
+      <c r="M77" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -4245,7 +4711,7 @@
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Granívoro</t>
+          <t>Gra</t>
         </is>
       </c>
       <c r="H78" t="n">
@@ -4255,9 +4721,15 @@
         <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>0</v>
+      </c>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -4294,7 +4766,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H79" t="n">
@@ -4304,9 +4776,15 @@
         <v>6</v>
       </c>
       <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>6</v>
+      </c>
+      <c r="L79" t="n">
         <v>24</v>
       </c>
-      <c r="K79" t="inlineStr">
+      <c r="M79" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -4343,7 +4821,7 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H80" t="n">
@@ -4353,9 +4831,15 @@
         <v>0</v>
       </c>
       <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>4</v>
+      </c>
+      <c r="L80" t="n">
         <v>6</v>
       </c>
-      <c r="K80" t="inlineStr">
+      <c r="M80" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -4392,7 +4876,7 @@
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>Granívoro</t>
+          <t>Gra</t>
         </is>
       </c>
       <c r="H81" t="n">
@@ -4402,9 +4886,15 @@
         <v>2</v>
       </c>
       <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="n">
         <v>18</v>
       </c>
-      <c r="K81" t="inlineStr">
+      <c r="M81" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -4441,7 +4931,7 @@
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>Granívoro</t>
+          <t>Gra</t>
         </is>
       </c>
       <c r="H82" t="n">
@@ -4451,9 +4941,15 @@
         <v>2</v>
       </c>
       <c r="J82" t="n">
-        <v>2</v>
-      </c>
-      <c r="K82" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>2</v>
+      </c>
+      <c r="M82" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -4490,7 +4986,7 @@
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>Granívoro</t>
+          <t>Gra</t>
         </is>
       </c>
       <c r="H83" t="n">
@@ -4500,9 +4996,15 @@
         <v>3</v>
       </c>
       <c r="J83" t="n">
+        <v>0</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0</v>
+      </c>
+      <c r="L83" t="n">
         <v>7</v>
       </c>
-      <c r="K83" t="inlineStr">
+      <c r="M83" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -4539,7 +5041,7 @@
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H84" t="n">
@@ -4549,9 +5051,15 @@
         <v>1</v>
       </c>
       <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0</v>
+      </c>
+      <c r="L84" t="n">
         <v>5</v>
       </c>
-      <c r="K84" t="inlineStr">
+      <c r="M84" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -4588,7 +5096,7 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H85" t="n">
@@ -4598,9 +5106,15 @@
         <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1</v>
-      </c>
-      <c r="K85" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -4637,7 +5151,7 @@
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H86" t="n">
@@ -4647,9 +5161,15 @@
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>2</v>
-      </c>
-      <c r="K86" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>2</v>
+      </c>
+      <c r="M86" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -4686,7 +5206,7 @@
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H87" t="n">
@@ -4696,9 +5216,15 @@
         <v>0</v>
       </c>
       <c r="J87" t="n">
-        <v>1</v>
-      </c>
-      <c r="K87" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K87" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -4735,7 +5261,7 @@
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H88" t="n">
@@ -4745,9 +5271,15 @@
         <v>3</v>
       </c>
       <c r="J88" t="n">
+        <v>0</v>
+      </c>
+      <c r="K88" t="n">
+        <v>2</v>
+      </c>
+      <c r="L88" t="n">
         <v>12</v>
       </c>
-      <c r="K88" t="inlineStr">
+      <c r="M88" t="inlineStr">
         <is>
           <t>Aud, Fot, Obs</t>
         </is>
@@ -4784,7 +5316,7 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H89" t="n">
@@ -4794,9 +5326,15 @@
         <v>1</v>
       </c>
       <c r="J89" t="n">
-        <v>1</v>
-      </c>
-      <c r="K89" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr">
         <is>
           <t>Vid</t>
         </is>
@@ -4833,7 +5371,7 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H90" t="n">
@@ -4843,9 +5381,15 @@
         <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1</v>
-      </c>
-      <c r="K90" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0</v>
+      </c>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -4882,7 +5426,7 @@
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H91" t="n">
@@ -4892,9 +5436,15 @@
         <v>0</v>
       </c>
       <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0</v>
+      </c>
+      <c r="L91" t="n">
         <v>12</v>
       </c>
-      <c r="K91" t="inlineStr">
+      <c r="M91" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -4931,7 +5481,7 @@
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H92" t="n">
@@ -4941,9 +5491,15 @@
         <v>0</v>
       </c>
       <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0</v>
+      </c>
+      <c r="L92" t="n">
         <v>3</v>
       </c>
-      <c r="K92" t="inlineStr">
+      <c r="M92" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -4980,7 +5536,7 @@
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H93" t="n">
@@ -4990,9 +5546,15 @@
         <v>2</v>
       </c>
       <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
         <v>4</v>
       </c>
-      <c r="K93" t="inlineStr">
+      <c r="M93" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -5029,7 +5591,7 @@
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H94" t="n">
@@ -5039,9 +5601,15 @@
         <v>0</v>
       </c>
       <c r="J94" t="n">
+        <v>0</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0</v>
+      </c>
+      <c r="L94" t="n">
         <v>6</v>
       </c>
-      <c r="K94" t="inlineStr">
+      <c r="M94" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -5078,7 +5646,7 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H95" t="n">
@@ -5088,9 +5656,15 @@
         <v>2</v>
       </c>
       <c r="J95" t="n">
+        <v>0</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0</v>
+      </c>
+      <c r="L95" t="n">
         <v>4</v>
       </c>
-      <c r="K95" t="inlineStr">
+      <c r="M95" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -5127,7 +5701,7 @@
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H96" t="n">
@@ -5137,9 +5711,15 @@
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>1</v>
-      </c>
-      <c r="K96" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -5176,7 +5756,7 @@
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H97" t="n">
@@ -5186,9 +5766,15 @@
         <v>2</v>
       </c>
       <c r="J97" t="n">
+        <v>1</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0</v>
+      </c>
+      <c r="L97" t="n">
         <v>11</v>
       </c>
-      <c r="K97" t="inlineStr">
+      <c r="M97" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -5225,7 +5811,7 @@
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H98" t="n">
@@ -5235,9 +5821,15 @@
         <v>0</v>
       </c>
       <c r="J98" t="n">
+        <v>0</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0</v>
+      </c>
+      <c r="L98" t="n">
         <v>6</v>
       </c>
-      <c r="K98" t="inlineStr">
+      <c r="M98" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -5274,7 +5866,7 @@
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H99" t="n">
@@ -5284,9 +5876,15 @@
         <v>1</v>
       </c>
       <c r="J99" t="n">
+        <v>0</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0</v>
+      </c>
+      <c r="L99" t="n">
         <v>11</v>
       </c>
-      <c r="K99" t="inlineStr">
+      <c r="M99" t="inlineStr">
         <is>
           <t>Aud, Obs</t>
         </is>
@@ -5323,7 +5921,7 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H100" t="n">
@@ -5333,9 +5931,15 @@
         <v>0</v>
       </c>
       <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0</v>
+      </c>
+      <c r="L100" t="n">
         <v>36</v>
       </c>
-      <c r="K100" t="inlineStr">
+      <c r="M100" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -5372,7 +5976,7 @@
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H101" t="n">
@@ -5382,9 +5986,15 @@
         <v>1</v>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
-      </c>
-      <c r="K101" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -5421,7 +6031,7 @@
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Granívoro</t>
+          <t>Gra</t>
         </is>
       </c>
       <c r="H102" t="n">
@@ -5431,9 +6041,15 @@
         <v>0</v>
       </c>
       <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0</v>
+      </c>
+      <c r="L102" t="n">
         <v>4</v>
       </c>
-      <c r="K102" t="inlineStr">
+      <c r="M102" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -5470,7 +6086,7 @@
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H103" t="n">
@@ -5480,9 +6096,15 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
         <v>6</v>
       </c>
-      <c r="K103" t="inlineStr">
+      <c r="M103" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -5519,7 +6141,7 @@
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H104" t="n">
@@ -5529,9 +6151,15 @@
         <v>12</v>
       </c>
       <c r="J104" t="n">
+        <v>4</v>
+      </c>
+      <c r="K104" t="n">
+        <v>5</v>
+      </c>
+      <c r="L104" t="n">
         <v>44</v>
       </c>
-      <c r="K104" t="inlineStr">
+      <c r="M104" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -5568,7 +6196,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H105" t="n">
@@ -5578,9 +6206,15 @@
         <v>1</v>
       </c>
       <c r="J105" t="n">
-        <v>1</v>
-      </c>
-      <c r="K105" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0</v>
+      </c>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -5617,7 +6251,7 @@
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H106" t="n">
@@ -5627,9 +6261,15 @@
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>1</v>
-      </c>
-      <c r="K106" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -5666,7 +6306,7 @@
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H107" t="n">
@@ -5676,9 +6316,15 @@
         <v>1</v>
       </c>
       <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0</v>
+      </c>
+      <c r="L107" t="n">
         <v>3</v>
       </c>
-      <c r="K107" t="inlineStr">
+      <c r="M107" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -5715,7 +6361,7 @@
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>Granívoro</t>
+          <t>Gra</t>
         </is>
       </c>
       <c r="H108" t="n">
@@ -5725,9 +6371,15 @@
         <v>0</v>
       </c>
       <c r="J108" t="n">
+        <v>0</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0</v>
+      </c>
+      <c r="L108" t="n">
         <v>3</v>
       </c>
-      <c r="K108" t="inlineStr">
+      <c r="M108" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -5764,7 +6416,7 @@
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H109" t="n">
@@ -5774,9 +6426,15 @@
         <v>4</v>
       </c>
       <c r="J109" t="n">
+        <v>4</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0</v>
+      </c>
+      <c r="L109" t="n">
         <v>28</v>
       </c>
-      <c r="K109" t="inlineStr">
+      <c r="M109" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -5813,7 +6471,7 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H110" t="n">
@@ -5823,9 +6481,15 @@
         <v>0</v>
       </c>
       <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
         <v>4</v>
       </c>
-      <c r="K110" t="inlineStr">
+      <c r="M110" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -5862,7 +6526,7 @@
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H111" t="n">
@@ -5872,9 +6536,15 @@
         <v>5</v>
       </c>
       <c r="J111" t="n">
+        <v>0</v>
+      </c>
+      <c r="K111" t="n">
+        <v>2</v>
+      </c>
+      <c r="L111" t="n">
         <v>16</v>
       </c>
-      <c r="K111" t="inlineStr">
+      <c r="M111" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -5911,7 +6581,7 @@
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H112" t="n">
@@ -5921,9 +6591,15 @@
         <v>2</v>
       </c>
       <c r="J112" t="n">
-        <v>2</v>
-      </c>
-      <c r="K112" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0</v>
+      </c>
+      <c r="L112" t="n">
+        <v>2</v>
+      </c>
+      <c r="M112" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -5960,7 +6636,7 @@
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H113" t="n">
@@ -5970,9 +6646,15 @@
         <v>0</v>
       </c>
       <c r="J113" t="n">
+        <v>1</v>
+      </c>
+      <c r="K113" t="n">
+        <v>2</v>
+      </c>
+      <c r="L113" t="n">
         <v>3</v>
       </c>
-      <c r="K113" t="inlineStr">
+      <c r="M113" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -6009,7 +6691,7 @@
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H114" t="n">
@@ -6019,9 +6701,15 @@
         <v>0</v>
       </c>
       <c r="J114" t="n">
+        <v>0</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0</v>
+      </c>
+      <c r="L114" t="n">
         <v>4</v>
       </c>
-      <c r="K114" t="inlineStr">
+      <c r="M114" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -6058,7 +6746,7 @@
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H115" t="n">
@@ -6068,9 +6756,15 @@
         <v>22</v>
       </c>
       <c r="J115" t="n">
+        <v>7</v>
+      </c>
+      <c r="K115" t="n">
+        <v>7</v>
+      </c>
+      <c r="L115" t="n">
         <v>47</v>
       </c>
-      <c r="K115" t="inlineStr">
+      <c r="M115" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -6107,7 +6801,7 @@
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H116" t="n">
@@ -6117,9 +6811,15 @@
         <v>0</v>
       </c>
       <c r="J116" t="n">
-        <v>2</v>
-      </c>
-      <c r="K116" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0</v>
+      </c>
+      <c r="L116" t="n">
+        <v>2</v>
+      </c>
+      <c r="M116" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -6156,7 +6856,7 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H117" t="n">
@@ -6166,9 +6866,15 @@
         <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>1</v>
-      </c>
-      <c r="K117" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -6205,7 +6911,7 @@
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H118" t="n">
@@ -6215,9 +6921,15 @@
         <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>1</v>
-      </c>
-      <c r="K118" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -6254,7 +6966,7 @@
       </c>
       <c r="G119" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H119" t="n">
@@ -6264,9 +6976,15 @@
         <v>1</v>
       </c>
       <c r="J119" t="n">
-        <v>1</v>
-      </c>
-      <c r="K119" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -6303,7 +7021,7 @@
       </c>
       <c r="G120" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H120" t="n">
@@ -6313,9 +7031,15 @@
         <v>0</v>
       </c>
       <c r="J120" t="n">
-        <v>1</v>
-      </c>
-      <c r="K120" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>1</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -6352,7 +7076,7 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Granívoro</t>
+          <t>Gra</t>
         </is>
       </c>
       <c r="H121" t="n">
@@ -6362,9 +7086,15 @@
         <v>1</v>
       </c>
       <c r="J121" t="n">
-        <v>1</v>
-      </c>
-      <c r="K121" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -6401,7 +7131,7 @@
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H122" t="n">
@@ -6411,9 +7141,15 @@
         <v>2</v>
       </c>
       <c r="J122" t="n">
-        <v>2</v>
-      </c>
-      <c r="K122" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>2</v>
+      </c>
+      <c r="M122" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -6450,7 +7186,7 @@
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H123" t="n">
@@ -6460,9 +7196,15 @@
         <v>2</v>
       </c>
       <c r="J123" t="n">
-        <v>2</v>
-      </c>
-      <c r="K123" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>2</v>
+      </c>
+      <c r="M123" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -6499,7 +7241,7 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H124" t="n">
@@ -6509,9 +7251,15 @@
         <v>2</v>
       </c>
       <c r="J124" t="n">
+        <v>0</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0</v>
+      </c>
+      <c r="L124" t="n">
         <v>4</v>
       </c>
-      <c r="K124" t="inlineStr">
+      <c r="M124" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -6548,7 +7296,7 @@
       </c>
       <c r="G125" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H125" t="n">
@@ -6558,9 +7306,15 @@
         <v>6</v>
       </c>
       <c r="J125" t="n">
+        <v>4</v>
+      </c>
+      <c r="K125" t="n">
+        <v>8</v>
+      </c>
+      <c r="L125" t="n">
         <v>27</v>
       </c>
-      <c r="K125" t="inlineStr">
+      <c r="M125" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -6597,7 +7351,7 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H126" t="n">
@@ -6607,9 +7361,15 @@
         <v>1</v>
       </c>
       <c r="J126" t="n">
+        <v>0</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0</v>
+      </c>
+      <c r="L126" t="n">
         <v>4</v>
       </c>
-      <c r="K126" t="inlineStr">
+      <c r="M126" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -6646,7 +7406,7 @@
       </c>
       <c r="G127" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H127" t="n">
@@ -6656,9 +7416,15 @@
         <v>4</v>
       </c>
       <c r="J127" t="n">
+        <v>0</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0</v>
+      </c>
+      <c r="L127" t="n">
         <v>6</v>
       </c>
-      <c r="K127" t="inlineStr">
+      <c r="M127" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -6695,7 +7461,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H128" t="n">
@@ -6705,9 +7471,15 @@
         <v>0</v>
       </c>
       <c r="J128" t="n">
-        <v>2</v>
-      </c>
-      <c r="K128" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0</v>
+      </c>
+      <c r="L128" t="n">
+        <v>2</v>
+      </c>
+      <c r="M128" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -6744,7 +7516,7 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H129" t="n">
@@ -6754,9 +7526,15 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>2</v>
-      </c>
-      <c r="K129" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0</v>
+      </c>
+      <c r="L129" t="n">
+        <v>2</v>
+      </c>
+      <c r="M129" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -6793,7 +7571,7 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H130" t="n">
@@ -6803,9 +7581,15 @@
         <v>0</v>
       </c>
       <c r="J130" t="n">
+        <v>0</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0</v>
+      </c>
+      <c r="L130" t="n">
         <v>5</v>
       </c>
-      <c r="K130" t="inlineStr">
+      <c r="M130" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -6842,7 +7626,7 @@
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H131" t="n">
@@ -6852,9 +7636,15 @@
         <v>1</v>
       </c>
       <c r="J131" t="n">
+        <v>0</v>
+      </c>
+      <c r="K131" t="n">
+        <v>1</v>
+      </c>
+      <c r="L131" t="n">
         <v>4</v>
       </c>
-      <c r="K131" t="inlineStr">
+      <c r="M131" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -6891,7 +7681,7 @@
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Granívoro</t>
+          <t>Gra</t>
         </is>
       </c>
       <c r="H132" t="n">
@@ -6901,9 +7691,15 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>2</v>
-      </c>
-      <c r="K132" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0</v>
+      </c>
+      <c r="L132" t="n">
+        <v>2</v>
+      </c>
+      <c r="M132" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -6940,7 +7736,7 @@
       </c>
       <c r="G133" t="inlineStr">
         <is>
-          <t>Granívoro</t>
+          <t>Gra</t>
         </is>
       </c>
       <c r="H133" t="n">
@@ -6950,9 +7746,15 @@
         <v>4</v>
       </c>
       <c r="J133" t="n">
+        <v>0</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0</v>
+      </c>
+      <c r="L133" t="n">
         <v>7</v>
       </c>
-      <c r="K133" t="inlineStr">
+      <c r="M133" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -6989,7 +7791,7 @@
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H134" t="n">
@@ -6999,9 +7801,15 @@
         <v>13</v>
       </c>
       <c r="J134" t="n">
+        <v>0</v>
+      </c>
+      <c r="K134" t="n">
+        <v>2</v>
+      </c>
+      <c r="L134" t="n">
         <v>25</v>
       </c>
-      <c r="K134" t="inlineStr">
+      <c r="M134" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -7038,7 +7846,7 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H135" t="n">
@@ -7048,9 +7856,15 @@
         <v>19</v>
       </c>
       <c r="J135" t="n">
+        <v>12</v>
+      </c>
+      <c r="K135" t="n">
+        <v>6</v>
+      </c>
+      <c r="L135" t="n">
         <v>75</v>
       </c>
-      <c r="K135" t="inlineStr">
+      <c r="M135" t="inlineStr">
         <is>
           <t>Aud, Fot, Obs</t>
         </is>
@@ -7087,7 +7901,7 @@
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H136" t="n">
@@ -7097,9 +7911,15 @@
         <v>0</v>
       </c>
       <c r="J136" t="n">
-        <v>2</v>
-      </c>
-      <c r="K136" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0</v>
+      </c>
+      <c r="L136" t="n">
+        <v>2</v>
+      </c>
+      <c r="M136" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -7136,7 +7956,7 @@
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H137" t="n">
@@ -7146,9 +7966,15 @@
         <v>5</v>
       </c>
       <c r="J137" t="n">
+        <v>0</v>
+      </c>
+      <c r="K137" t="n">
+        <v>1</v>
+      </c>
+      <c r="L137" t="n">
         <v>10</v>
       </c>
-      <c r="K137" t="inlineStr">
+      <c r="M137" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -7185,7 +8011,7 @@
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H138" t="n">
@@ -7195,9 +8021,15 @@
         <v>2</v>
       </c>
       <c r="J138" t="n">
+        <v>0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0</v>
+      </c>
+      <c r="L138" t="n">
         <v>5</v>
       </c>
-      <c r="K138" t="inlineStr">
+      <c r="M138" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -7234,7 +8066,7 @@
       </c>
       <c r="G139" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H139" t="n">
@@ -7244,9 +8076,15 @@
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>2</v>
-      </c>
-      <c r="K139" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K139" t="n">
+        <v>1</v>
+      </c>
+      <c r="L139" t="n">
+        <v>2</v>
+      </c>
+      <c r="M139" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -7283,7 +8121,7 @@
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H140" t="n">
@@ -7293,9 +8131,15 @@
         <v>2</v>
       </c>
       <c r="J140" t="n">
-        <v>2</v>
-      </c>
-      <c r="K140" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0</v>
+      </c>
+      <c r="L140" t="n">
+        <v>2</v>
+      </c>
+      <c r="M140" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -7332,7 +8176,7 @@
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H141" t="n">
@@ -7342,9 +8186,15 @@
         <v>0</v>
       </c>
       <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
         <v>4</v>
       </c>
-      <c r="K141" t="inlineStr">
+      <c r="M141" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -7381,7 +8231,7 @@
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H142" t="n">
@@ -7391,9 +8241,15 @@
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>1</v>
-      </c>
-      <c r="K142" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0</v>
+      </c>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -7430,7 +8286,7 @@
       </c>
       <c r="G143" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H143" t="n">
@@ -7440,9 +8296,15 @@
         <v>4</v>
       </c>
       <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0</v>
+      </c>
+      <c r="L143" t="n">
         <v>4</v>
       </c>
-      <c r="K143" t="inlineStr">
+      <c r="M143" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -7479,7 +8341,7 @@
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H144" t="n">
@@ -7489,9 +8351,15 @@
         <v>1</v>
       </c>
       <c r="J144" t="n">
+        <v>1</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0</v>
+      </c>
+      <c r="L144" t="n">
         <v>4</v>
       </c>
-      <c r="K144" t="inlineStr">
+      <c r="M144" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -7528,7 +8396,7 @@
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H145" t="n">
@@ -7538,9 +8406,15 @@
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>2</v>
-      </c>
-      <c r="K145" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0</v>
+      </c>
+      <c r="L145" t="n">
+        <v>2</v>
+      </c>
+      <c r="M145" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -7577,7 +8451,7 @@
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H146" t="n">
@@ -7587,9 +8461,15 @@
         <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>2</v>
-      </c>
-      <c r="K146" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0</v>
+      </c>
+      <c r="L146" t="n">
+        <v>2</v>
+      </c>
+      <c r="M146" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -7626,7 +8506,7 @@
       </c>
       <c r="G147" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H147" t="n">
@@ -7636,9 +8516,15 @@
         <v>1</v>
       </c>
       <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0</v>
+      </c>
+      <c r="L147" t="n">
         <v>7</v>
       </c>
-      <c r="K147" t="inlineStr">
+      <c r="M147" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -7675,7 +8561,7 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H148" t="n">
@@ -7685,9 +8571,15 @@
         <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>1</v>
-      </c>
-      <c r="K148" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0</v>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -7724,7 +8616,7 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H149" t="n">
@@ -7734,9 +8626,15 @@
         <v>0</v>
       </c>
       <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
         <v>4</v>
       </c>
-      <c r="K149" t="inlineStr">
+      <c r="M149" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -7773,7 +8671,7 @@
       </c>
       <c r="G150" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H150" t="n">
@@ -7783,9 +8681,15 @@
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>1</v>
-      </c>
-      <c r="K150" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0</v>
+      </c>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -7822,7 +8726,7 @@
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Granívoro</t>
+          <t>Gra</t>
         </is>
       </c>
       <c r="H151" t="n">
@@ -7832,9 +8736,15 @@
         <v>0</v>
       </c>
       <c r="J151" t="n">
+        <v>1</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0</v>
+      </c>
+      <c r="L151" t="n">
         <v>5</v>
       </c>
-      <c r="K151" t="inlineStr">
+      <c r="M151" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -7871,7 +8781,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H152" t="n">
@@ -7881,9 +8791,15 @@
         <v>0</v>
       </c>
       <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
         <v>3</v>
       </c>
-      <c r="K152" t="inlineStr">
+      <c r="M152" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -7920,7 +8836,7 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H153" t="n">
@@ -7930,9 +8846,15 @@
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>2</v>
-      </c>
-      <c r="K153" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>0</v>
+      </c>
+      <c r="L153" t="n">
+        <v>2</v>
+      </c>
+      <c r="M153" t="inlineStr">
         <is>
           <t>Cap</t>
         </is>
@@ -7969,7 +8891,7 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H154" t="n">
@@ -7979,9 +8901,15 @@
         <v>4</v>
       </c>
       <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
         <v>11</v>
       </c>
-      <c r="K154" t="inlineStr">
+      <c r="M154" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -8018,7 +8946,7 @@
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H155" t="n">
@@ -8028,9 +8956,15 @@
         <v>8</v>
       </c>
       <c r="J155" t="n">
+        <v>6</v>
+      </c>
+      <c r="K155" t="n">
+        <v>3</v>
+      </c>
+      <c r="L155" t="n">
         <v>53</v>
       </c>
-      <c r="K155" t="inlineStr">
+      <c r="M155" t="inlineStr">
         <is>
           <t>Aud, Cap, Fot</t>
         </is>
@@ -8067,7 +9001,7 @@
       </c>
       <c r="G156" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H156" t="n">
@@ -8077,9 +9011,15 @@
         <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>2</v>
-      </c>
-      <c r="K156" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>2</v>
+      </c>
+      <c r="M156" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -8116,7 +9056,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H157" t="n">
@@ -8126,9 +9066,15 @@
         <v>1</v>
       </c>
       <c r="J157" t="n">
-        <v>2</v>
-      </c>
-      <c r="K157" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>2</v>
+      </c>
+      <c r="M157" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -8165,7 +9111,7 @@
       </c>
       <c r="G158" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H158" t="n">
@@ -8175,9 +9121,15 @@
         <v>4</v>
       </c>
       <c r="J158" t="n">
+        <v>0</v>
+      </c>
+      <c r="K158" t="n">
+        <v>0</v>
+      </c>
+      <c r="L158" t="n">
         <v>20</v>
       </c>
-      <c r="K158" t="inlineStr">
+      <c r="M158" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -8214,7 +9166,7 @@
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H159" t="n">
@@ -8224,9 +9176,15 @@
         <v>5</v>
       </c>
       <c r="J159" t="n">
+        <v>2</v>
+      </c>
+      <c r="K159" t="n">
+        <v>0</v>
+      </c>
+      <c r="L159" t="n">
         <v>16</v>
       </c>
-      <c r="K159" t="inlineStr">
+      <c r="M159" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -8263,7 +9221,7 @@
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H160" t="n">
@@ -8273,9 +9231,15 @@
         <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>2</v>
-      </c>
-      <c r="K160" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K160" t="n">
+        <v>0</v>
+      </c>
+      <c r="L160" t="n">
+        <v>2</v>
+      </c>
+      <c r="M160" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -8312,7 +9276,7 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H161" t="n">
@@ -8322,9 +9286,15 @@
         <v>13</v>
       </c>
       <c r="J161" t="n">
+        <v>6</v>
+      </c>
+      <c r="K161" t="n">
+        <v>4</v>
+      </c>
+      <c r="L161" t="n">
         <v>35</v>
       </c>
-      <c r="K161" t="inlineStr">
+      <c r="M161" t="inlineStr">
         <is>
           <t>Cap, Fot</t>
         </is>
@@ -8361,7 +9331,7 @@
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>Granívoro</t>
+          <t>Gra</t>
         </is>
       </c>
       <c r="H162" t="n">
@@ -8371,9 +9341,15 @@
         <v>2</v>
       </c>
       <c r="J162" t="n">
+        <v>0</v>
+      </c>
+      <c r="K162" t="n">
+        <v>0</v>
+      </c>
+      <c r="L162" t="n">
         <v>6</v>
       </c>
-      <c r="K162" t="inlineStr">
+      <c r="M162" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -8410,7 +9386,7 @@
       </c>
       <c r="G163" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H163" t="n">
@@ -8420,9 +9396,15 @@
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>2</v>
-      </c>
-      <c r="K163" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K163" t="n">
+        <v>0</v>
+      </c>
+      <c r="L163" t="n">
+        <v>2</v>
+      </c>
+      <c r="M163" t="inlineStr">
         <is>
           <t>Obs</t>
         </is>
@@ -8459,7 +9441,7 @@
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H164" t="n">
@@ -8469,9 +9451,15 @@
         <v>10</v>
       </c>
       <c r="J164" t="n">
+        <v>3</v>
+      </c>
+      <c r="K164" t="n">
+        <v>2</v>
+      </c>
+      <c r="L164" t="n">
         <v>39</v>
       </c>
-      <c r="K164" t="inlineStr">
+      <c r="M164" t="inlineStr">
         <is>
           <t>Aud, Fot, Obs</t>
         </is>
@@ -8508,7 +9496,7 @@
       </c>
       <c r="G165" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H165" t="n">
@@ -8518,9 +9506,15 @@
         <v>11</v>
       </c>
       <c r="J165" t="n">
+        <v>0</v>
+      </c>
+      <c r="K165" t="n">
+        <v>2</v>
+      </c>
+      <c r="L165" t="n">
         <v>20</v>
       </c>
-      <c r="K165" t="inlineStr">
+      <c r="M165" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -8557,7 +9551,7 @@
       </c>
       <c r="G166" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H166" t="n">
@@ -8567,9 +9561,15 @@
         <v>0</v>
       </c>
       <c r="J166" t="n">
-        <v>2</v>
-      </c>
-      <c r="K166" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K166" t="n">
+        <v>0</v>
+      </c>
+      <c r="L166" t="n">
+        <v>2</v>
+      </c>
+      <c r="M166" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -8606,7 +9606,7 @@
       </c>
       <c r="G167" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H167" t="n">
@@ -8616,9 +9616,15 @@
         <v>1</v>
       </c>
       <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="n">
+        <v>2</v>
+      </c>
+      <c r="L167" t="n">
         <v>17</v>
       </c>
-      <c r="K167" t="inlineStr">
+      <c r="M167" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -8655,7 +9661,7 @@
       </c>
       <c r="G168" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H168" t="n">
@@ -8665,9 +9671,15 @@
         <v>12</v>
       </c>
       <c r="J168" t="n">
+        <v>2</v>
+      </c>
+      <c r="K168" t="n">
+        <v>0</v>
+      </c>
+      <c r="L168" t="n">
         <v>43</v>
       </c>
-      <c r="K168" t="inlineStr">
+      <c r="M168" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -8704,7 +9716,7 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H169" t="n">
@@ -8714,9 +9726,15 @@
         <v>1</v>
       </c>
       <c r="J169" t="n">
-        <v>1</v>
-      </c>
-      <c r="K169" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K169" t="n">
+        <v>0</v>
+      </c>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -8753,7 +9771,7 @@
       </c>
       <c r="G170" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H170" t="n">
@@ -8763,9 +9781,15 @@
         <v>4</v>
       </c>
       <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="n">
+        <v>0</v>
+      </c>
+      <c r="L170" t="n">
         <v>6</v>
       </c>
-      <c r="K170" t="inlineStr">
+      <c r="M170" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -8802,7 +9826,7 @@
       </c>
       <c r="G171" t="inlineStr">
         <is>
-          <t>Granívoro</t>
+          <t>Gra</t>
         </is>
       </c>
       <c r="H171" t="n">
@@ -8812,9 +9836,15 @@
         <v>1</v>
       </c>
       <c r="J171" t="n">
-        <v>1</v>
-      </c>
-      <c r="K171" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K171" t="n">
+        <v>0</v>
+      </c>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -8851,7 +9881,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>Granívoro</t>
+          <t>Gra</t>
         </is>
       </c>
       <c r="H172" t="n">
@@ -8861,9 +9891,15 @@
         <v>0</v>
       </c>
       <c r="J172" t="n">
-        <v>2</v>
-      </c>
-      <c r="K172" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K172" t="n">
+        <v>0</v>
+      </c>
+      <c r="L172" t="n">
+        <v>2</v>
+      </c>
+      <c r="M172" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -8900,7 +9936,7 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H173" t="n">
@@ -8910,9 +9946,15 @@
         <v>0</v>
       </c>
       <c r="J173" t="n">
-        <v>2</v>
-      </c>
-      <c r="K173" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K173" t="n">
+        <v>0</v>
+      </c>
+      <c r="L173" t="n">
+        <v>2</v>
+      </c>
+      <c r="M173" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -8949,7 +9991,7 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>Granívoro</t>
+          <t>Gra</t>
         </is>
       </c>
       <c r="H174" t="n">
@@ -8959,9 +10001,15 @@
         <v>13</v>
       </c>
       <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="n">
+        <v>0</v>
+      </c>
+      <c r="L174" t="n">
         <v>52</v>
       </c>
-      <c r="K174" t="inlineStr">
+      <c r="M174" t="inlineStr">
         <is>
           <t>Aud, Cap, Fot</t>
         </is>
@@ -8998,7 +10046,7 @@
       </c>
       <c r="G175" t="inlineStr">
         <is>
-          <t>Granívoro</t>
+          <t>Gra</t>
         </is>
       </c>
       <c r="H175" t="n">
@@ -9008,9 +10056,15 @@
         <v>0</v>
       </c>
       <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="n">
+        <v>1</v>
+      </c>
+      <c r="L175" t="n">
         <v>3</v>
       </c>
-      <c r="K175" t="inlineStr">
+      <c r="M175" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -9047,7 +10101,7 @@
       </c>
       <c r="G176" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H176" t="n">
@@ -9057,9 +10111,15 @@
         <v>6</v>
       </c>
       <c r="J176" t="n">
+        <v>2</v>
+      </c>
+      <c r="K176" t="n">
+        <v>2</v>
+      </c>
+      <c r="L176" t="n">
         <v>16</v>
       </c>
-      <c r="K176" t="inlineStr">
+      <c r="M176" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -9096,7 +10156,7 @@
       </c>
       <c r="G177" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H177" t="n">
@@ -9106,9 +10166,15 @@
         <v>16</v>
       </c>
       <c r="J177" t="n">
+        <v>6</v>
+      </c>
+      <c r="K177" t="n">
+        <v>4</v>
+      </c>
+      <c r="L177" t="n">
         <v>67</v>
       </c>
-      <c r="K177" t="inlineStr">
+      <c r="M177" t="inlineStr">
         <is>
           <t>Aud, Cap, Fot</t>
         </is>
@@ -9145,7 +10211,7 @@
       </c>
       <c r="G178" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H178" t="n">
@@ -9155,9 +10221,15 @@
         <v>10</v>
       </c>
       <c r="J178" t="n">
+        <v>6</v>
+      </c>
+      <c r="K178" t="n">
+        <v>0</v>
+      </c>
+      <c r="L178" t="n">
         <v>18</v>
       </c>
-      <c r="K178" t="inlineStr">
+      <c r="M178" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -9194,7 +10266,7 @@
       </c>
       <c r="G179" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H179" t="n">
@@ -9204,9 +10276,15 @@
         <v>6</v>
       </c>
       <c r="J179" t="n">
+        <v>7</v>
+      </c>
+      <c r="K179" t="n">
+        <v>2</v>
+      </c>
+      <c r="L179" t="n">
         <v>30</v>
       </c>
-      <c r="K179" t="inlineStr">
+      <c r="M179" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -9243,7 +10321,7 @@
       </c>
       <c r="G180" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H180" t="n">
@@ -9253,9 +10331,15 @@
         <v>0</v>
       </c>
       <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="n">
+        <v>0</v>
+      </c>
+      <c r="L180" t="n">
         <v>4</v>
       </c>
-      <c r="K180" t="inlineStr">
+      <c r="M180" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -9292,7 +10376,7 @@
       </c>
       <c r="G181" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H181" t="n">
@@ -9302,9 +10386,15 @@
         <v>3</v>
       </c>
       <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="n">
+        <v>0</v>
+      </c>
+      <c r="L181" t="n">
         <v>17</v>
       </c>
-      <c r="K181" t="inlineStr">
+      <c r="M181" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -9341,7 +10431,7 @@
       </c>
       <c r="G182" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H182" t="n">
@@ -9351,9 +10441,15 @@
         <v>0</v>
       </c>
       <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="n">
+        <v>0</v>
+      </c>
+      <c r="L182" t="n">
         <v>5</v>
       </c>
-      <c r="K182" t="inlineStr">
+      <c r="M182" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -9390,7 +10486,7 @@
       </c>
       <c r="G183" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H183" t="n">
@@ -9400,9 +10496,15 @@
         <v>11</v>
       </c>
       <c r="J183" t="n">
+        <v>6</v>
+      </c>
+      <c r="K183" t="n">
+        <v>13</v>
+      </c>
+      <c r="L183" t="n">
         <v>57</v>
       </c>
-      <c r="K183" t="inlineStr">
+      <c r="M183" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -9439,7 +10541,7 @@
       </c>
       <c r="G184" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H184" t="n">
@@ -9449,9 +10551,15 @@
         <v>2</v>
       </c>
       <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="n">
+        <v>2</v>
+      </c>
+      <c r="L184" t="n">
         <v>4</v>
       </c>
-      <c r="K184" t="inlineStr">
+      <c r="M184" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -9488,7 +10596,7 @@
       </c>
       <c r="G185" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H185" t="n">
@@ -9498,9 +10606,15 @@
         <v>0</v>
       </c>
       <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="n">
+        <v>2</v>
+      </c>
+      <c r="L185" t="n">
         <v>8</v>
       </c>
-      <c r="K185" t="inlineStr">
+      <c r="M185" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -9537,7 +10651,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H186" t="n">
@@ -9547,9 +10661,15 @@
         <v>8</v>
       </c>
       <c r="J186" t="n">
+        <v>19</v>
+      </c>
+      <c r="K186" t="n">
+        <v>0</v>
+      </c>
+      <c r="L186" t="n">
         <v>70</v>
       </c>
-      <c r="K186" t="inlineStr">
+      <c r="M186" t="inlineStr">
         <is>
           <t>Aud, Fot, Obs</t>
         </is>
@@ -9586,7 +10706,7 @@
       </c>
       <c r="G187" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H187" t="n">
@@ -9596,9 +10716,15 @@
         <v>2</v>
       </c>
       <c r="J187" t="n">
+        <v>1</v>
+      </c>
+      <c r="K187" t="n">
+        <v>0</v>
+      </c>
+      <c r="L187" t="n">
         <v>14</v>
       </c>
-      <c r="K187" t="inlineStr">
+      <c r="M187" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -9635,7 +10761,7 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H188" t="n">
@@ -9645,9 +10771,15 @@
         <v>0</v>
       </c>
       <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="n">
+        <v>0</v>
+      </c>
+      <c r="L188" t="n">
         <v>6</v>
       </c>
-      <c r="K188" t="inlineStr">
+      <c r="M188" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -9684,7 +10816,7 @@
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>Granívoro</t>
+          <t>Gra</t>
         </is>
       </c>
       <c r="H189" t="n">
@@ -9694,9 +10826,15 @@
         <v>10</v>
       </c>
       <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="n">
+        <v>0</v>
+      </c>
+      <c r="L189" t="n">
         <v>30</v>
       </c>
-      <c r="K189" t="inlineStr">
+      <c r="M189" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -9733,7 +10871,7 @@
       </c>
       <c r="G190" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H190" t="n">
@@ -9743,9 +10881,15 @@
         <v>1</v>
       </c>
       <c r="J190" t="n">
-        <v>1</v>
-      </c>
-      <c r="K190" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K190" t="n">
+        <v>0</v>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -9782,7 +10926,7 @@
       </c>
       <c r="G191" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H191" t="n">
@@ -9792,9 +10936,15 @@
         <v>2</v>
       </c>
       <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="n">
+        <v>0</v>
+      </c>
+      <c r="L191" t="n">
         <v>3</v>
       </c>
-      <c r="K191" t="inlineStr">
+      <c r="M191" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -9831,7 +10981,7 @@
       </c>
       <c r="G192" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H192" t="n">
@@ -9841,9 +10991,15 @@
         <v>0</v>
       </c>
       <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="n">
+        <v>0</v>
+      </c>
+      <c r="L192" t="n">
         <v>4</v>
       </c>
-      <c r="K192" t="inlineStr">
+      <c r="M192" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -9880,7 +11036,7 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H193" t="n">
@@ -9890,9 +11046,15 @@
         <v>2</v>
       </c>
       <c r="J193" t="n">
+        <v>1</v>
+      </c>
+      <c r="K193" t="n">
+        <v>0</v>
+      </c>
+      <c r="L193" t="n">
         <v>7</v>
       </c>
-      <c r="K193" t="inlineStr">
+      <c r="M193" t="inlineStr">
         <is>
           <t>Fot, Obs</t>
         </is>
@@ -9929,7 +11091,7 @@
       </c>
       <c r="G194" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H194" t="n">
@@ -9939,9 +11101,15 @@
         <v>0</v>
       </c>
       <c r="J194" t="n">
-        <v>2</v>
-      </c>
-      <c r="K194" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K194" t="n">
+        <v>0</v>
+      </c>
+      <c r="L194" t="n">
+        <v>2</v>
+      </c>
+      <c r="M194" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -9978,7 +11146,7 @@
       </c>
       <c r="G195" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H195" t="n">
@@ -9988,9 +11156,15 @@
         <v>0</v>
       </c>
       <c r="J195" t="n">
-        <v>1</v>
-      </c>
-      <c r="K195" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K195" t="n">
+        <v>0</v>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -10027,7 +11201,7 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H196" t="n">
@@ -10037,9 +11211,15 @@
         <v>1</v>
       </c>
       <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="n">
+        <v>1</v>
+      </c>
+      <c r="L196" t="n">
         <v>13</v>
       </c>
-      <c r="K196" t="inlineStr">
+      <c r="M196" t="inlineStr">
         <is>
           <t>Aud, Vid</t>
         </is>
@@ -10076,7 +11256,7 @@
       </c>
       <c r="G197" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H197" t="n">
@@ -10086,9 +11266,15 @@
         <v>0</v>
       </c>
       <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="n">
+        <v>0</v>
+      </c>
+      <c r="L197" t="n">
         <v>4</v>
       </c>
-      <c r="K197" t="inlineStr">
+      <c r="M197" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -10125,7 +11311,7 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H198" t="n">
@@ -10135,9 +11321,15 @@
         <v>6</v>
       </c>
       <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="n">
+        <v>0</v>
+      </c>
+      <c r="L198" t="n">
         <v>16</v>
       </c>
-      <c r="K198" t="inlineStr">
+      <c r="M198" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -10174,7 +11366,7 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H199" t="n">
@@ -10184,9 +11376,15 @@
         <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>2</v>
-      </c>
-      <c r="K199" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K199" t="n">
+        <v>0</v>
+      </c>
+      <c r="L199" t="n">
+        <v>2</v>
+      </c>
+      <c r="M199" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -10223,7 +11421,7 @@
       </c>
       <c r="G200" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H200" t="n">
@@ -10233,9 +11431,15 @@
         <v>7</v>
       </c>
       <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="n">
+        <v>0</v>
+      </c>
+      <c r="L200" t="n">
         <v>31</v>
       </c>
-      <c r="K200" t="inlineStr">
+      <c r="M200" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -10272,7 +11476,7 @@
       </c>
       <c r="G201" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H201" t="n">
@@ -10282,9 +11486,15 @@
         <v>2</v>
       </c>
       <c r="J201" t="n">
-        <v>2</v>
-      </c>
-      <c r="K201" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K201" t="n">
+        <v>0</v>
+      </c>
+      <c r="L201" t="n">
+        <v>2</v>
+      </c>
+      <c r="M201" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -10321,7 +11531,7 @@
       </c>
       <c r="G202" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H202" t="n">
@@ -10331,9 +11541,15 @@
         <v>2</v>
       </c>
       <c r="J202" t="n">
-        <v>2</v>
-      </c>
-      <c r="K202" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K202" t="n">
+        <v>0</v>
+      </c>
+      <c r="L202" t="n">
+        <v>2</v>
+      </c>
+      <c r="M202" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -10370,7 +11586,7 @@
       </c>
       <c r="G203" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H203" t="n">
@@ -10380,9 +11596,15 @@
         <v>1</v>
       </c>
       <c r="J203" t="n">
-        <v>1</v>
-      </c>
-      <c r="K203" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K203" t="n">
+        <v>0</v>
+      </c>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -10419,7 +11641,7 @@
       </c>
       <c r="G204" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H204" t="n">
@@ -10429,9 +11651,15 @@
         <v>3</v>
       </c>
       <c r="J204" t="n">
+        <v>1</v>
+      </c>
+      <c r="K204" t="n">
+        <v>0</v>
+      </c>
+      <c r="L204" t="n">
         <v>6</v>
       </c>
-      <c r="K204" t="inlineStr">
+      <c r="M204" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -10468,7 +11696,7 @@
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H205" t="n">
@@ -10478,9 +11706,15 @@
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>2</v>
-      </c>
-      <c r="K205" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K205" t="n">
+        <v>2</v>
+      </c>
+      <c r="L205" t="n">
+        <v>2</v>
+      </c>
+      <c r="M205" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -10517,7 +11751,7 @@
       </c>
       <c r="G206" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H206" t="n">
@@ -10527,9 +11761,15 @@
         <v>7</v>
       </c>
       <c r="J206" t="n">
+        <v>4</v>
+      </c>
+      <c r="K206" t="n">
+        <v>0</v>
+      </c>
+      <c r="L206" t="n">
         <v>28</v>
       </c>
-      <c r="K206" t="inlineStr">
+      <c r="M206" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -10566,7 +11806,7 @@
       </c>
       <c r="G207" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H207" t="n">
@@ -10576,9 +11816,15 @@
         <v>2</v>
       </c>
       <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="n">
+        <v>0</v>
+      </c>
+      <c r="L207" t="n">
         <v>6</v>
       </c>
-      <c r="K207" t="inlineStr">
+      <c r="M207" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -10615,7 +11861,7 @@
       </c>
       <c r="G208" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H208" t="n">
@@ -10625,9 +11871,15 @@
         <v>2</v>
       </c>
       <c r="J208" t="n">
+        <v>2</v>
+      </c>
+      <c r="K208" t="n">
+        <v>0</v>
+      </c>
+      <c r="L208" t="n">
         <v>18</v>
       </c>
-      <c r="K208" t="inlineStr">
+      <c r="M208" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -10664,7 +11916,7 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H209" t="n">
@@ -10674,9 +11926,15 @@
         <v>3</v>
       </c>
       <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="n">
+        <v>0</v>
+      </c>
+      <c r="L209" t="n">
         <v>7</v>
       </c>
-      <c r="K209" t="inlineStr">
+      <c r="M209" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -10713,7 +11971,7 @@
       </c>
       <c r="G210" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H210" t="n">
@@ -10723,9 +11981,15 @@
         <v>0</v>
       </c>
       <c r="J210" t="n">
-        <v>2</v>
-      </c>
-      <c r="K210" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K210" t="n">
+        <v>0</v>
+      </c>
+      <c r="L210" t="n">
+        <v>2</v>
+      </c>
+      <c r="M210" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -10762,7 +12026,7 @@
       </c>
       <c r="G211" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H211" t="n">
@@ -10772,9 +12036,15 @@
         <v>1</v>
       </c>
       <c r="J211" t="n">
-        <v>1</v>
-      </c>
-      <c r="K211" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K211" t="n">
+        <v>0</v>
+      </c>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -10811,7 +12081,7 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H212" t="n">
@@ -10821,9 +12091,15 @@
         <v>2</v>
       </c>
       <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="n">
+        <v>0</v>
+      </c>
+      <c r="L212" t="n">
         <v>4</v>
       </c>
-      <c r="K212" t="inlineStr">
+      <c r="M212" t="inlineStr">
         <is>
           <t>Fot, Obs</t>
         </is>
@@ -10860,7 +12136,7 @@
       </c>
       <c r="G213" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H213" t="n">
@@ -10870,9 +12146,15 @@
         <v>0</v>
       </c>
       <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="n">
+        <v>0</v>
+      </c>
+      <c r="L213" t="n">
         <v>4</v>
       </c>
-      <c r="K213" t="inlineStr">
+      <c r="M213" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -10909,7 +12191,7 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H214" t="n">
@@ -10919,9 +12201,15 @@
         <v>8</v>
       </c>
       <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="n">
+        <v>0</v>
+      </c>
+      <c r="L214" t="n">
         <v>13</v>
       </c>
-      <c r="K214" t="inlineStr">
+      <c r="M214" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -10958,7 +12246,7 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H215" t="n">
@@ -10968,9 +12256,15 @@
         <v>0</v>
       </c>
       <c r="J215" t="n">
-        <v>2</v>
-      </c>
-      <c r="K215" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K215" t="n">
+        <v>0</v>
+      </c>
+      <c r="L215" t="n">
+        <v>2</v>
+      </c>
+      <c r="M215" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -11007,7 +12301,7 @@
       </c>
       <c r="G216" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H216" t="n">
@@ -11017,9 +12311,15 @@
         <v>2</v>
       </c>
       <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="n">
+        <v>0</v>
+      </c>
+      <c r="L216" t="n">
         <v>4</v>
       </c>
-      <c r="K216" t="inlineStr">
+      <c r="M216" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -11056,7 +12356,7 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H217" t="n">
@@ -11068,7 +12368,13 @@
       <c r="J217" t="n">
         <v>1</v>
       </c>
-      <c r="K217" t="inlineStr">
+      <c r="K217" t="n">
+        <v>0</v>
+      </c>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -11105,7 +12411,7 @@
       </c>
       <c r="G218" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H218" t="n">
@@ -11115,9 +12421,15 @@
         <v>0</v>
       </c>
       <c r="J218" t="n">
+        <v>1</v>
+      </c>
+      <c r="K218" t="n">
+        <v>0</v>
+      </c>
+      <c r="L218" t="n">
         <v>6</v>
       </c>
-      <c r="K218" t="inlineStr">
+      <c r="M218" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -11154,7 +12466,7 @@
       </c>
       <c r="G219" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H219" t="n">
@@ -11164,9 +12476,15 @@
         <v>15</v>
       </c>
       <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="n">
+        <v>0</v>
+      </c>
+      <c r="L219" t="n">
         <v>24</v>
       </c>
-      <c r="K219" t="inlineStr">
+      <c r="M219" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -11203,7 +12521,7 @@
       </c>
       <c r="G220" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H220" t="n">
@@ -11213,9 +12531,15 @@
         <v>6</v>
       </c>
       <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="n">
+        <v>0</v>
+      </c>
+      <c r="L220" t="n">
         <v>14</v>
       </c>
-      <c r="K220" t="inlineStr">
+      <c r="M220" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -11252,7 +12576,7 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H221" t="n">
@@ -11262,9 +12586,15 @@
         <v>5</v>
       </c>
       <c r="J221" t="n">
+        <v>3</v>
+      </c>
+      <c r="K221" t="n">
+        <v>0</v>
+      </c>
+      <c r="L221" t="n">
         <v>16</v>
       </c>
-      <c r="K221" t="inlineStr">
+      <c r="M221" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -11301,7 +12631,7 @@
       </c>
       <c r="G222" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H222" t="n">
@@ -11311,9 +12641,15 @@
         <v>10</v>
       </c>
       <c r="J222" t="n">
+        <v>4</v>
+      </c>
+      <c r="K222" t="n">
+        <v>1</v>
+      </c>
+      <c r="L222" t="n">
         <v>18</v>
       </c>
-      <c r="K222" t="inlineStr">
+      <c r="M222" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -11350,7 +12686,7 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H223" t="n">
@@ -11360,9 +12696,15 @@
         <v>0</v>
       </c>
       <c r="J223" t="n">
-        <v>2</v>
-      </c>
-      <c r="K223" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K223" t="n">
+        <v>0</v>
+      </c>
+      <c r="L223" t="n">
+        <v>2</v>
+      </c>
+      <c r="M223" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -11399,7 +12741,7 @@
       </c>
       <c r="G224" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H224" t="n">
@@ -11409,9 +12751,15 @@
         <v>0</v>
       </c>
       <c r="J224" t="n">
-        <v>2</v>
-      </c>
-      <c r="K224" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="K224" t="n">
+        <v>0</v>
+      </c>
+      <c r="L224" t="n">
+        <v>2</v>
+      </c>
+      <c r="M224" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -11448,7 +12796,7 @@
       </c>
       <c r="G225" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H225" t="n">
@@ -11458,9 +12806,15 @@
         <v>3</v>
       </c>
       <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="n">
+        <v>0</v>
+      </c>
+      <c r="L225" t="n">
         <v>3</v>
       </c>
-      <c r="K225" t="inlineStr">
+      <c r="M225" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -11497,7 +12851,7 @@
       </c>
       <c r="G226" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H226" t="n">
@@ -11507,9 +12861,15 @@
         <v>0</v>
       </c>
       <c r="J226" t="n">
-        <v>2</v>
-      </c>
-      <c r="K226" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K226" t="n">
+        <v>0</v>
+      </c>
+      <c r="L226" t="n">
+        <v>2</v>
+      </c>
+      <c r="M226" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -11546,7 +12906,7 @@
       </c>
       <c r="G227" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H227" t="n">
@@ -11556,9 +12916,15 @@
         <v>0</v>
       </c>
       <c r="J227" t="n">
+        <v>0</v>
+      </c>
+      <c r="K227" t="n">
+        <v>0</v>
+      </c>
+      <c r="L227" t="n">
         <v>7</v>
       </c>
-      <c r="K227" t="inlineStr">
+      <c r="M227" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -11595,7 +12961,7 @@
       </c>
       <c r="G228" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H228" t="n">
@@ -11605,9 +12971,15 @@
         <v>13</v>
       </c>
       <c r="J228" t="n">
+        <v>2</v>
+      </c>
+      <c r="K228" t="n">
+        <v>3</v>
+      </c>
+      <c r="L228" t="n">
         <v>28</v>
       </c>
-      <c r="K228" t="inlineStr">
+      <c r="M228" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -11644,7 +13016,7 @@
       </c>
       <c r="G229" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H229" t="n">
@@ -11654,9 +13026,15 @@
         <v>1</v>
       </c>
       <c r="J229" t="n">
+        <v>0</v>
+      </c>
+      <c r="K229" t="n">
+        <v>0</v>
+      </c>
+      <c r="L229" t="n">
         <v>3</v>
       </c>
-      <c r="K229" t="inlineStr">
+      <c r="M229" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -11693,7 +13071,7 @@
       </c>
       <c r="G230" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H230" t="n">
@@ -11703,9 +13081,15 @@
         <v>0</v>
       </c>
       <c r="J230" t="n">
+        <v>0</v>
+      </c>
+      <c r="K230" t="n">
+        <v>0</v>
+      </c>
+      <c r="L230" t="n">
         <v>4</v>
       </c>
-      <c r="K230" t="inlineStr">
+      <c r="M230" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -11742,7 +13126,7 @@
       </c>
       <c r="G231" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H231" t="n">
@@ -11754,7 +13138,13 @@
       <c r="J231" t="n">
         <v>4</v>
       </c>
-      <c r="K231" t="inlineStr">
+      <c r="K231" t="n">
+        <v>0</v>
+      </c>
+      <c r="L231" t="n">
+        <v>4</v>
+      </c>
+      <c r="M231" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -11791,7 +13181,7 @@
       </c>
       <c r="G232" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H232" t="n">
@@ -11801,9 +13191,15 @@
         <v>1</v>
       </c>
       <c r="J232" t="n">
-        <v>1</v>
-      </c>
-      <c r="K232" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K232" t="n">
+        <v>0</v>
+      </c>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -11840,7 +13236,7 @@
       </c>
       <c r="G233" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H233" t="n">
@@ -11850,9 +13246,15 @@
         <v>2</v>
       </c>
       <c r="J233" t="n">
+        <v>2</v>
+      </c>
+      <c r="K233" t="n">
+        <v>2</v>
+      </c>
+      <c r="L233" t="n">
         <v>26</v>
       </c>
-      <c r="K233" t="inlineStr">
+      <c r="M233" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -11889,7 +13291,7 @@
       </c>
       <c r="G234" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H234" t="n">
@@ -11899,9 +13301,15 @@
         <v>2</v>
       </c>
       <c r="J234" t="n">
-        <v>2</v>
-      </c>
-      <c r="K234" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K234" t="n">
+        <v>0</v>
+      </c>
+      <c r="L234" t="n">
+        <v>2</v>
+      </c>
+      <c r="M234" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -11938,7 +13346,7 @@
       </c>
       <c r="G235" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H235" t="n">
@@ -11948,9 +13356,15 @@
         <v>0</v>
       </c>
       <c r="J235" t="n">
+        <v>0</v>
+      </c>
+      <c r="K235" t="n">
+        <v>0</v>
+      </c>
+      <c r="L235" t="n">
         <v>4</v>
       </c>
-      <c r="K235" t="inlineStr">
+      <c r="M235" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -11987,7 +13401,7 @@
       </c>
       <c r="G236" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H236" t="n">
@@ -11997,9 +13411,15 @@
         <v>2</v>
       </c>
       <c r="J236" t="n">
+        <v>0</v>
+      </c>
+      <c r="K236" t="n">
+        <v>0</v>
+      </c>
+      <c r="L236" t="n">
         <v>4</v>
       </c>
-      <c r="K236" t="inlineStr">
+      <c r="M236" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -12036,7 +13456,7 @@
       </c>
       <c r="G237" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H237" t="n">
@@ -12046,9 +13466,15 @@
         <v>10</v>
       </c>
       <c r="J237" t="n">
+        <v>0</v>
+      </c>
+      <c r="K237" t="n">
+        <v>0</v>
+      </c>
+      <c r="L237" t="n">
         <v>26</v>
       </c>
-      <c r="K237" t="inlineStr">
+      <c r="M237" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -12085,7 +13511,7 @@
       </c>
       <c r="G238" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H238" t="n">
@@ -12095,9 +13521,15 @@
         <v>0</v>
       </c>
       <c r="J238" t="n">
+        <v>0</v>
+      </c>
+      <c r="K238" t="n">
+        <v>0</v>
+      </c>
+      <c r="L238" t="n">
         <v>7</v>
       </c>
-      <c r="K238" t="inlineStr">
+      <c r="M238" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -12134,7 +13566,7 @@
       </c>
       <c r="G239" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H239" t="n">
@@ -12144,9 +13576,15 @@
         <v>5</v>
       </c>
       <c r="J239" t="n">
+        <v>0</v>
+      </c>
+      <c r="K239" t="n">
+        <v>0</v>
+      </c>
+      <c r="L239" t="n">
         <v>6</v>
       </c>
-      <c r="K239" t="inlineStr">
+      <c r="M239" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -12183,7 +13621,7 @@
       </c>
       <c r="G240" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H240" t="n">
@@ -12193,9 +13631,15 @@
         <v>4</v>
       </c>
       <c r="J240" t="n">
+        <v>0</v>
+      </c>
+      <c r="K240" t="n">
+        <v>0</v>
+      </c>
+      <c r="L240" t="n">
         <v>4</v>
       </c>
-      <c r="K240" t="inlineStr">
+      <c r="M240" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -12232,7 +13676,7 @@
       </c>
       <c r="G241" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H241" t="n">
@@ -12242,9 +13686,15 @@
         <v>0</v>
       </c>
       <c r="J241" t="n">
+        <v>0</v>
+      </c>
+      <c r="K241" t="n">
+        <v>8</v>
+      </c>
+      <c r="L241" t="n">
         <v>11</v>
       </c>
-      <c r="K241" t="inlineStr">
+      <c r="M241" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -12281,7 +13731,7 @@
       </c>
       <c r="G242" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H242" t="n">
@@ -12291,9 +13741,15 @@
         <v>1</v>
       </c>
       <c r="J242" t="n">
+        <v>0</v>
+      </c>
+      <c r="K242" t="n">
+        <v>1</v>
+      </c>
+      <c r="L242" t="n">
         <v>5</v>
       </c>
-      <c r="K242" t="inlineStr">
+      <c r="M242" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -12330,7 +13786,7 @@
       </c>
       <c r="G243" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H243" t="n">
@@ -12340,9 +13796,15 @@
         <v>7</v>
       </c>
       <c r="J243" t="n">
+        <v>2</v>
+      </c>
+      <c r="K243" t="n">
+        <v>0</v>
+      </c>
+      <c r="L243" t="n">
         <v>33</v>
       </c>
-      <c r="K243" t="inlineStr">
+      <c r="M243" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -12379,7 +13841,7 @@
       </c>
       <c r="G244" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H244" t="n">
@@ -12389,9 +13851,15 @@
         <v>0</v>
       </c>
       <c r="J244" t="n">
+        <v>0</v>
+      </c>
+      <c r="K244" t="n">
+        <v>0</v>
+      </c>
+      <c r="L244" t="n">
         <v>15</v>
       </c>
-      <c r="K244" t="inlineStr">
+      <c r="M244" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -12428,7 +13896,7 @@
       </c>
       <c r="G245" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H245" t="n">
@@ -12438,9 +13906,15 @@
         <v>0</v>
       </c>
       <c r="J245" t="n">
-        <v>1</v>
-      </c>
-      <c r="K245" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K245" t="n">
+        <v>1</v>
+      </c>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -12477,7 +13951,7 @@
       </c>
       <c r="G246" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H246" t="n">
@@ -12487,9 +13961,15 @@
         <v>0</v>
       </c>
       <c r="J246" t="n">
-        <v>1</v>
-      </c>
-      <c r="K246" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K246" t="n">
+        <v>0</v>
+      </c>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -12526,7 +14006,7 @@
       </c>
       <c r="G247" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H247" t="n">
@@ -12536,9 +14016,15 @@
         <v>0</v>
       </c>
       <c r="J247" t="n">
-        <v>2</v>
-      </c>
-      <c r="K247" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K247" t="n">
+        <v>0</v>
+      </c>
+      <c r="L247" t="n">
+        <v>2</v>
+      </c>
+      <c r="M247" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -12575,7 +14061,7 @@
       </c>
       <c r="G248" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H248" t="n">
@@ -12587,7 +14073,13 @@
       <c r="J248" t="n">
         <v>2</v>
       </c>
-      <c r="K248" t="inlineStr">
+      <c r="K248" t="n">
+        <v>0</v>
+      </c>
+      <c r="L248" t="n">
+        <v>2</v>
+      </c>
+      <c r="M248" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -12624,7 +14116,7 @@
       </c>
       <c r="G249" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H249" t="n">
@@ -12634,9 +14126,15 @@
         <v>2</v>
       </c>
       <c r="J249" t="n">
+        <v>4</v>
+      </c>
+      <c r="K249" t="n">
+        <v>2</v>
+      </c>
+      <c r="L249" t="n">
         <v>14</v>
       </c>
-      <c r="K249" t="inlineStr">
+      <c r="M249" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -12673,7 +14171,7 @@
       </c>
       <c r="G250" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H250" t="n">
@@ -12683,9 +14181,15 @@
         <v>0</v>
       </c>
       <c r="J250" t="n">
-        <v>2</v>
-      </c>
-      <c r="K250" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K250" t="n">
+        <v>0</v>
+      </c>
+      <c r="L250" t="n">
+        <v>2</v>
+      </c>
+      <c r="M250" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -12722,7 +14226,7 @@
       </c>
       <c r="G251" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H251" t="n">
@@ -12732,9 +14236,15 @@
         <v>0</v>
       </c>
       <c r="J251" t="n">
-        <v>1</v>
-      </c>
-      <c r="K251" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K251" t="n">
+        <v>0</v>
+      </c>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -12771,7 +14281,7 @@
       </c>
       <c r="G252" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H252" t="n">
@@ -12781,9 +14291,15 @@
         <v>0</v>
       </c>
       <c r="J252" t="n">
-        <v>1</v>
-      </c>
-      <c r="K252" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K252" t="n">
+        <v>0</v>
+      </c>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -12820,7 +14336,7 @@
       </c>
       <c r="G253" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H253" t="n">
@@ -12830,9 +14346,15 @@
         <v>0</v>
       </c>
       <c r="J253" t="n">
+        <v>2</v>
+      </c>
+      <c r="K253" t="n">
+        <v>0</v>
+      </c>
+      <c r="L253" t="n">
         <v>11</v>
       </c>
-      <c r="K253" t="inlineStr">
+      <c r="M253" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -12869,7 +14391,7 @@
       </c>
       <c r="G254" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H254" t="n">
@@ -12879,9 +14401,15 @@
         <v>7</v>
       </c>
       <c r="J254" t="n">
+        <v>0</v>
+      </c>
+      <c r="K254" t="n">
+        <v>0</v>
+      </c>
+      <c r="L254" t="n">
         <v>16</v>
       </c>
-      <c r="K254" t="inlineStr">
+      <c r="M254" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -12918,7 +14446,7 @@
       </c>
       <c r="G255" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H255" t="n">
@@ -12928,9 +14456,15 @@
         <v>0</v>
       </c>
       <c r="J255" t="n">
-        <v>1</v>
-      </c>
-      <c r="K255" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K255" t="n">
+        <v>1</v>
+      </c>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -12967,7 +14501,7 @@
       </c>
       <c r="G256" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H256" t="n">
@@ -12977,9 +14511,15 @@
         <v>14</v>
       </c>
       <c r="J256" t="n">
+        <v>4</v>
+      </c>
+      <c r="K256" t="n">
+        <v>0</v>
+      </c>
+      <c r="L256" t="n">
         <v>54</v>
       </c>
-      <c r="K256" t="inlineStr">
+      <c r="M256" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -13016,7 +14556,7 @@
       </c>
       <c r="G257" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H257" t="n">
@@ -13026,9 +14566,15 @@
         <v>0</v>
       </c>
       <c r="J257" t="n">
-        <v>1</v>
-      </c>
-      <c r="K257" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K257" t="n">
+        <v>0</v>
+      </c>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -13065,7 +14611,7 @@
       </c>
       <c r="G258" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H258" t="n">
@@ -13075,9 +14621,15 @@
         <v>18</v>
       </c>
       <c r="J258" t="n">
+        <v>8</v>
+      </c>
+      <c r="K258" t="n">
+        <v>6</v>
+      </c>
+      <c r="L258" t="n">
         <v>69</v>
       </c>
-      <c r="K258" t="inlineStr">
+      <c r="M258" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -13114,7 +14666,7 @@
       </c>
       <c r="G259" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H259" t="n">
@@ -13124,9 +14676,15 @@
         <v>5</v>
       </c>
       <c r="J259" t="n">
+        <v>2</v>
+      </c>
+      <c r="K259" t="n">
+        <v>8</v>
+      </c>
+      <c r="L259" t="n">
         <v>28</v>
       </c>
-      <c r="K259" t="inlineStr">
+      <c r="M259" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -13163,7 +14721,7 @@
       </c>
       <c r="G260" t="inlineStr">
         <is>
-          <t>Granívoro</t>
+          <t>Gra</t>
         </is>
       </c>
       <c r="H260" t="n">
@@ -13173,9 +14731,15 @@
         <v>3</v>
       </c>
       <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="n">
+        <v>0</v>
+      </c>
+      <c r="L260" t="n">
         <v>7</v>
       </c>
-      <c r="K260" t="inlineStr">
+      <c r="M260" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -13212,7 +14776,7 @@
       </c>
       <c r="G261" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H261" t="n">
@@ -13222,9 +14786,15 @@
         <v>0</v>
       </c>
       <c r="J261" t="n">
-        <v>1</v>
-      </c>
-      <c r="K261" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K261" t="n">
+        <v>0</v>
+      </c>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -13261,7 +14831,7 @@
       </c>
       <c r="G262" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H262" t="n">
@@ -13271,9 +14841,15 @@
         <v>2</v>
       </c>
       <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="n">
+        <v>0</v>
+      </c>
+      <c r="L262" t="n">
         <v>8</v>
       </c>
-      <c r="K262" t="inlineStr">
+      <c r="M262" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -13310,7 +14886,7 @@
       </c>
       <c r="G263" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H263" t="n">
@@ -13320,9 +14896,15 @@
         <v>3</v>
       </c>
       <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="n">
+        <v>0</v>
+      </c>
+      <c r="L263" t="n">
         <v>6</v>
       </c>
-      <c r="K263" t="inlineStr">
+      <c r="M263" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -13359,7 +14941,7 @@
       </c>
       <c r="G264" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H264" t="n">
@@ -13369,9 +14951,15 @@
         <v>0</v>
       </c>
       <c r="J264" t="n">
+        <v>1</v>
+      </c>
+      <c r="K264" t="n">
+        <v>2</v>
+      </c>
+      <c r="L264" t="n">
         <v>5</v>
       </c>
-      <c r="K264" t="inlineStr">
+      <c r="M264" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -13408,7 +14996,7 @@
       </c>
       <c r="G265" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H265" t="n">
@@ -13418,9 +15006,15 @@
         <v>1</v>
       </c>
       <c r="J265" t="n">
-        <v>1</v>
-      </c>
-      <c r="K265" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K265" t="n">
+        <v>0</v>
+      </c>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -13457,7 +15051,7 @@
       </c>
       <c r="G266" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H266" t="n">
@@ -13467,9 +15061,15 @@
         <v>4</v>
       </c>
       <c r="J266" t="n">
+        <v>4</v>
+      </c>
+      <c r="K266" t="n">
+        <v>0</v>
+      </c>
+      <c r="L266" t="n">
         <v>14</v>
       </c>
-      <c r="K266" t="inlineStr">
+      <c r="M266" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -13506,7 +15106,7 @@
       </c>
       <c r="G267" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H267" t="n">
@@ -13516,9 +15116,15 @@
         <v>2</v>
       </c>
       <c r="J267" t="n">
+        <v>3</v>
+      </c>
+      <c r="K267" t="n">
+        <v>1</v>
+      </c>
+      <c r="L267" t="n">
         <v>12</v>
       </c>
-      <c r="K267" t="inlineStr">
+      <c r="M267" t="inlineStr">
         <is>
           <t>Aud, Fot</t>
         </is>
@@ -13555,7 +15161,7 @@
       </c>
       <c r="G268" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H268" t="n">
@@ -13565,9 +15171,15 @@
         <v>3</v>
       </c>
       <c r="J268" t="n">
+        <v>0</v>
+      </c>
+      <c r="K268" t="n">
+        <v>1</v>
+      </c>
+      <c r="L268" t="n">
         <v>5</v>
       </c>
-      <c r="K268" t="inlineStr">
+      <c r="M268" t="inlineStr">
         <is>
           <t>Aud, MCNUP</t>
         </is>
@@ -13604,7 +15216,7 @@
       </c>
       <c r="G269" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H269" t="n">
@@ -13614,9 +15226,15 @@
         <v>6</v>
       </c>
       <c r="J269" t="n">
+        <v>0</v>
+      </c>
+      <c r="K269" t="n">
+        <v>6</v>
+      </c>
+      <c r="L269" t="n">
         <v>30</v>
       </c>
-      <c r="K269" t="inlineStr">
+      <c r="M269" t="inlineStr">
         <is>
           <t>Aud, Fot, Obs</t>
         </is>
@@ -13653,7 +15271,7 @@
       </c>
       <c r="G270" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H270" t="n">
@@ -13663,9 +15281,15 @@
         <v>0</v>
       </c>
       <c r="J270" t="n">
-        <v>2</v>
-      </c>
-      <c r="K270" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K270" t="n">
+        <v>0</v>
+      </c>
+      <c r="L270" t="n">
+        <v>2</v>
+      </c>
+      <c r="M270" t="inlineStr">
         <is>
           <t>Fot, Obs</t>
         </is>
@@ -13702,7 +15326,7 @@
       </c>
       <c r="G271" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H271" t="n">
@@ -13712,9 +15336,15 @@
         <v>0</v>
       </c>
       <c r="J271" t="n">
+        <v>0</v>
+      </c>
+      <c r="K271" t="n">
+        <v>2</v>
+      </c>
+      <c r="L271" t="n">
         <v>3</v>
       </c>
-      <c r="K271" t="inlineStr">
+      <c r="M271" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -13751,7 +15381,7 @@
       </c>
       <c r="G272" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H272" t="n">
@@ -13761,9 +15391,15 @@
         <v>0</v>
       </c>
       <c r="J272" t="n">
-        <v>2</v>
-      </c>
-      <c r="K272" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K272" t="n">
+        <v>0</v>
+      </c>
+      <c r="L272" t="n">
+        <v>2</v>
+      </c>
+      <c r="M272" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -13800,7 +15436,7 @@
       </c>
       <c r="G273" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H273" t="n">
@@ -13810,9 +15446,15 @@
         <v>3</v>
       </c>
       <c r="J273" t="n">
+        <v>0</v>
+      </c>
+      <c r="K273" t="n">
+        <v>0</v>
+      </c>
+      <c r="L273" t="n">
         <v>3</v>
       </c>
-      <c r="K273" t="inlineStr">
+      <c r="M273" t="inlineStr">
         <is>
           <t>Fot, Vid</t>
         </is>
@@ -13849,7 +15491,7 @@
       </c>
       <c r="G274" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H274" t="n">
@@ -13859,9 +15501,15 @@
         <v>1</v>
       </c>
       <c r="J274" t="n">
-        <v>1</v>
-      </c>
-      <c r="K274" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K274" t="n">
+        <v>0</v>
+      </c>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -13898,7 +15546,7 @@
       </c>
       <c r="G275" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H275" t="n">
@@ -13908,9 +15556,15 @@
         <v>0</v>
       </c>
       <c r="J275" t="n">
+        <v>0</v>
+      </c>
+      <c r="K275" t="n">
+        <v>0</v>
+      </c>
+      <c r="L275" t="n">
         <v>8</v>
       </c>
-      <c r="K275" t="inlineStr">
+      <c r="M275" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -13947,7 +15601,7 @@
       </c>
       <c r="G276" t="inlineStr">
         <is>
-          <t>Carnívoro</t>
+          <t>Car</t>
         </is>
       </c>
       <c r="H276" t="n">
@@ -13957,9 +15611,15 @@
         <v>0</v>
       </c>
       <c r="J276" t="n">
-        <v>1</v>
-      </c>
-      <c r="K276" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K276" t="n">
+        <v>0</v>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -13996,7 +15656,7 @@
       </c>
       <c r="G277" t="inlineStr">
         <is>
-          <t>Frugívoro</t>
+          <t>Fru</t>
         </is>
       </c>
       <c r="H277" t="n">
@@ -14006,9 +15666,15 @@
         <v>0</v>
       </c>
       <c r="J277" t="n">
-        <v>1</v>
-      </c>
-      <c r="K277" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K277" t="n">
+        <v>0</v>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -14045,7 +15711,7 @@
       </c>
       <c r="G278" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H278" t="n">
@@ -14055,9 +15721,15 @@
         <v>0</v>
       </c>
       <c r="J278" t="n">
-        <v>1</v>
-      </c>
-      <c r="K278" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K278" t="n">
+        <v>0</v>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr">
         <is>
           <t>Aud</t>
         </is>
@@ -14096,7 +15768,7 @@
       </c>
       <c r="G279" t="inlineStr">
         <is>
-          <t>Gremio tróo</t>
+          <t>Gremio trófico</t>
         </is>
       </c>
       <c r="H279" t="inlineStr">
@@ -14111,10 +15783,20 @@
       </c>
       <c r="J279" t="inlineStr">
         <is>
+          <t>Bfvs</t>
+        </is>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>Bgr</t>
+        </is>
+      </c>
+      <c r="L279" t="inlineStr">
+        <is>
           <t>Abundancia</t>
         </is>
       </c>
-      <c r="K279" t="inlineStr">
+      <c r="M279" t="inlineStr">
         <is>
           <t>Tipo de registro</t>
         </is>
@@ -14151,7 +15833,7 @@
       </c>
       <c r="G280" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H280" t="n">
@@ -14161,9 +15843,15 @@
         <v>3</v>
       </c>
       <c r="J280" t="n">
+        <v>0</v>
+      </c>
+      <c r="K280" t="n">
+        <v>0</v>
+      </c>
+      <c r="L280" t="n">
         <v>10</v>
       </c>
-      <c r="K280" t="inlineStr">
+      <c r="M280" t="inlineStr">
         <is>
           <t>Ent, Fot</t>
         </is>
@@ -14200,7 +15888,7 @@
       </c>
       <c r="G281" t="inlineStr">
         <is>
-          <t>Carnívoro</t>
+          <t>Car</t>
         </is>
       </c>
       <c r="H281" t="n">
@@ -14212,7 +15900,13 @@
       <c r="J281" t="n">
         <v>1</v>
       </c>
-      <c r="K281" t="inlineStr">
+      <c r="K281" t="n">
+        <v>0</v>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr">
         <is>
           <t>Ent</t>
         </is>
@@ -14249,7 +15943,7 @@
       </c>
       <c r="G282" t="inlineStr">
         <is>
-          <t>Carnívoro</t>
+          <t>Car</t>
         </is>
       </c>
       <c r="H282" t="n">
@@ -14259,9 +15953,15 @@
         <v>0</v>
       </c>
       <c r="J282" t="n">
-        <v>1</v>
-      </c>
-      <c r="K282" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K282" t="n">
+        <v>0</v>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr">
         <is>
           <t>Ent</t>
         </is>
@@ -14298,7 +15998,7 @@
       </c>
       <c r="G283" t="inlineStr">
         <is>
-          <t>Carnívoro</t>
+          <t>Car</t>
         </is>
       </c>
       <c r="H283" t="n">
@@ -14308,9 +16008,15 @@
         <v>1</v>
       </c>
       <c r="J283" t="n">
-        <v>2</v>
-      </c>
-      <c r="K283" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K283" t="n">
+        <v>0</v>
+      </c>
+      <c r="L283" t="n">
+        <v>2</v>
+      </c>
+      <c r="M283" t="inlineStr">
         <is>
           <t>Fot, Vid</t>
         </is>
@@ -14347,7 +16053,7 @@
       </c>
       <c r="G284" t="inlineStr">
         <is>
-          <t>Carnívoro</t>
+          <t>Car</t>
         </is>
       </c>
       <c r="H284" t="n">
@@ -14357,9 +16063,15 @@
         <v>1</v>
       </c>
       <c r="J284" t="n">
-        <v>2</v>
-      </c>
-      <c r="K284" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="K284" t="n">
+        <v>0</v>
+      </c>
+      <c r="L284" t="n">
+        <v>2</v>
+      </c>
+      <c r="M284" t="inlineStr">
         <is>
           <t>Ent</t>
         </is>
@@ -14396,7 +16108,7 @@
       </c>
       <c r="G285" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H285" t="n">
@@ -14406,9 +16118,15 @@
         <v>1</v>
       </c>
       <c r="J285" t="n">
-        <v>2</v>
-      </c>
-      <c r="K285" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K285" t="n">
+        <v>0</v>
+      </c>
+      <c r="L285" t="n">
+        <v>2</v>
+      </c>
+      <c r="M285" t="inlineStr">
         <is>
           <t>Fot, Vid</t>
         </is>
@@ -14445,7 +16163,7 @@
       </c>
       <c r="G286" t="inlineStr">
         <is>
-          <t>Carnívoro</t>
+          <t>Car</t>
         </is>
       </c>
       <c r="H286" t="n">
@@ -14455,9 +16173,15 @@
         <v>0</v>
       </c>
       <c r="J286" t="n">
-        <v>2</v>
-      </c>
-      <c r="K286" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="K286" t="n">
+        <v>0</v>
+      </c>
+      <c r="L286" t="n">
+        <v>2</v>
+      </c>
+      <c r="M286" t="inlineStr">
         <is>
           <t>MCNUP, Obs</t>
         </is>
@@ -14494,7 +16218,7 @@
       </c>
       <c r="G287" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H287" t="n">
@@ -14504,9 +16228,15 @@
         <v>0</v>
       </c>
       <c r="J287" t="n">
+        <v>0</v>
+      </c>
+      <c r="K287" t="n">
+        <v>0</v>
+      </c>
+      <c r="L287" t="n">
         <v>4</v>
       </c>
-      <c r="K287" t="inlineStr">
+      <c r="M287" t="inlineStr">
         <is>
           <t>Fot, Obs</t>
         </is>
@@ -14543,7 +16273,7 @@
       </c>
       <c r="G288" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H288" t="n">
@@ -14553,9 +16283,15 @@
         <v>0</v>
       </c>
       <c r="J288" t="n">
-        <v>2</v>
-      </c>
-      <c r="K288" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K288" t="n">
+        <v>0</v>
+      </c>
+      <c r="L288" t="n">
+        <v>2</v>
+      </c>
+      <c r="M288" t="inlineStr">
         <is>
           <t>Fot</t>
         </is>
@@ -14592,7 +16328,7 @@
       </c>
       <c r="G289" t="inlineStr">
         <is>
-          <t>Carnívoro</t>
+          <t>Car</t>
         </is>
       </c>
       <c r="H289" t="n">
@@ -14602,9 +16338,15 @@
         <v>0</v>
       </c>
       <c r="J289" t="n">
-        <v>1</v>
-      </c>
-      <c r="K289" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K289" t="n">
+        <v>0</v>
+      </c>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr">
         <is>
           <t>Ent</t>
         </is>
@@ -14641,7 +16383,7 @@
       </c>
       <c r="G290" t="inlineStr">
         <is>
-          <t>Nectarívoro</t>
+          <t>Nec</t>
         </is>
       </c>
       <c r="H290" t="n">
@@ -14651,9 +16393,15 @@
         <v>0</v>
       </c>
       <c r="J290" t="n">
-        <v>1</v>
-      </c>
-      <c r="K290" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K290" t="n">
+        <v>0</v>
+      </c>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr">
         <is>
           <t>MCNUP</t>
         </is>
@@ -14690,7 +16438,7 @@
       </c>
       <c r="G291" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H291" t="n">
@@ -14700,9 +16448,15 @@
         <v>1</v>
       </c>
       <c r="J291" t="n">
-        <v>1</v>
-      </c>
-      <c r="K291" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K291" t="n">
+        <v>0</v>
+      </c>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr">
         <is>
           <t>MCNUP</t>
         </is>
@@ -14739,7 +16493,7 @@
       </c>
       <c r="G292" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H292" t="n">
@@ -14749,9 +16503,15 @@
         <v>1</v>
       </c>
       <c r="J292" t="n">
-        <v>1</v>
-      </c>
-      <c r="K292" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K292" t="n">
+        <v>0</v>
+      </c>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr">
         <is>
           <t>MCNUP</t>
         </is>
@@ -14788,7 +16548,7 @@
       </c>
       <c r="G293" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H293" t="n">
@@ -14798,9 +16558,15 @@
         <v>5</v>
       </c>
       <c r="J293" t="n">
+        <v>8</v>
+      </c>
+      <c r="K293" t="n">
+        <v>0</v>
+      </c>
+      <c r="L293" t="n">
         <v>15</v>
       </c>
-      <c r="K293" t="inlineStr">
+      <c r="M293" t="inlineStr">
         <is>
           <t>Fot, MCNUP, Vid</t>
         </is>
@@ -14847,9 +16613,15 @@
         <v>0</v>
       </c>
       <c r="J294" t="n">
-        <v>1</v>
-      </c>
-      <c r="K294" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K294" t="n">
+        <v>0</v>
+      </c>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr">
         <is>
           <t>MCNUP</t>
         </is>
@@ -14886,7 +16658,7 @@
       </c>
       <c r="G295" t="inlineStr">
         <is>
-          <t>Carnívoro</t>
+          <t>Car</t>
         </is>
       </c>
       <c r="H295" t="n">
@@ -14896,9 +16668,15 @@
         <v>0</v>
       </c>
       <c r="J295" t="n">
-        <v>1</v>
-      </c>
-      <c r="K295" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K295" t="n">
+        <v>0</v>
+      </c>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr">
         <is>
           <t>MCNUP</t>
         </is>
@@ -14935,7 +16713,7 @@
       </c>
       <c r="G296" t="inlineStr">
         <is>
-          <t>Insectívoro</t>
+          <t>Ins</t>
         </is>
       </c>
       <c r="H296" t="n">
@@ -14945,9 +16723,15 @@
         <v>0</v>
       </c>
       <c r="J296" t="n">
-        <v>1</v>
-      </c>
-      <c r="K296" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K296" t="n">
+        <v>0</v>
+      </c>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr">
         <is>
           <t>MCNUP</t>
         </is>
@@ -14984,7 +16768,7 @@
       </c>
       <c r="G297" t="inlineStr">
         <is>
-          <t>Carnívoro</t>
+          <t>Car</t>
         </is>
       </c>
       <c r="H297" t="n">
@@ -14994,9 +16778,15 @@
         <v>6</v>
       </c>
       <c r="J297" t="n">
+        <v>0</v>
+      </c>
+      <c r="K297" t="n">
+        <v>0</v>
+      </c>
+      <c r="L297" t="n">
         <v>6</v>
       </c>
-      <c r="K297" t="inlineStr">
+      <c r="M297" t="inlineStr">
         <is>
           <t>Cuv, Ent</t>
         </is>
@@ -15033,7 +16823,7 @@
       </c>
       <c r="G298" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H298" t="n">
@@ -15043,9 +16833,15 @@
         <v>6</v>
       </c>
       <c r="J298" t="n">
+        <v>0</v>
+      </c>
+      <c r="K298" t="n">
+        <v>0</v>
+      </c>
+      <c r="L298" t="n">
         <v>3</v>
       </c>
-      <c r="K298" t="inlineStr">
+      <c r="M298" t="inlineStr">
         <is>
           <t>Vid</t>
         </is>
@@ -15082,7 +16878,7 @@
       </c>
       <c r="G299" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H299" t="n">
@@ -15092,9 +16888,15 @@
         <v>10</v>
       </c>
       <c r="J299" t="n">
+        <v>2</v>
+      </c>
+      <c r="K299" t="n">
+        <v>0</v>
+      </c>
+      <c r="L299" t="n">
         <v>20</v>
       </c>
-      <c r="K299" t="inlineStr">
+      <c r="M299" t="inlineStr">
         <is>
           <t>Ent, Fot, Obs, Vid</t>
         </is>
@@ -15131,7 +16933,7 @@
       </c>
       <c r="G300" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H300" t="n">
@@ -15141,9 +16943,15 @@
         <v>3</v>
       </c>
       <c r="J300" t="n">
+        <v>0</v>
+      </c>
+      <c r="K300" t="n">
+        <v>0</v>
+      </c>
+      <c r="L300" t="n">
         <v>4</v>
       </c>
-      <c r="K300" t="inlineStr">
+      <c r="M300" t="inlineStr">
         <is>
           <t>Ent, Fot, MCNUP</t>
         </is>
@@ -15180,7 +16988,7 @@
       </c>
       <c r="G301" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H301" t="n">
@@ -15190,9 +16998,15 @@
         <v>4</v>
       </c>
       <c r="J301" t="n">
+        <v>0</v>
+      </c>
+      <c r="K301" t="n">
+        <v>0</v>
+      </c>
+      <c r="L301" t="n">
         <v>6</v>
       </c>
-      <c r="K301" t="inlineStr">
+      <c r="M301" t="inlineStr">
         <is>
           <t>Fot, Vid</t>
         </is>
@@ -15229,7 +17043,7 @@
       </c>
       <c r="G302" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H302" t="n">
@@ -15239,9 +17053,15 @@
         <v>2</v>
       </c>
       <c r="J302" t="n">
+        <v>0</v>
+      </c>
+      <c r="K302" t="n">
+        <v>0</v>
+      </c>
+      <c r="L302" t="n">
         <v>5</v>
       </c>
-      <c r="K302" t="inlineStr">
+      <c r="M302" t="inlineStr">
         <is>
           <t>Ent, MCNUP, Vid</t>
         </is>
@@ -15279,10 +17099,12 @@
       </c>
       <c r="H303" t="inlineStr"/>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>0</v>
-      </c>
-      <c r="K303" t="inlineStr">
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>0</v>
+      </c>
+      <c r="M303" t="inlineStr">
         <is>
           <t>Vid</t>
         </is>
@@ -15329,9 +17151,15 @@
         <v>1</v>
       </c>
       <c r="J304" t="n">
-        <v>1</v>
-      </c>
-      <c r="K304" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K304" t="n">
+        <v>0</v>
+      </c>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr">
         <is>
           <t>Ent</t>
         </is>
@@ -15378,9 +17206,15 @@
         <v>13</v>
       </c>
       <c r="J305" t="n">
+        <v>0</v>
+      </c>
+      <c r="K305" t="n">
+        <v>0</v>
+      </c>
+      <c r="L305" t="n">
         <v>26</v>
       </c>
-      <c r="K305" t="inlineStr">
+      <c r="M305" t="inlineStr">
         <is>
           <t>Cuv, Ent, Fot, Hec, Hue, MP, Ras, Vid</t>
         </is>
@@ -15427,9 +17261,15 @@
         <v>16</v>
       </c>
       <c r="J306" t="n">
+        <v>2</v>
+      </c>
+      <c r="K306" t="n">
+        <v>0</v>
+      </c>
+      <c r="L306" t="n">
         <v>39</v>
       </c>
-      <c r="K306" t="inlineStr">
+      <c r="M306" t="inlineStr">
         <is>
           <t>Cuv, Ent, Fot, MP, Ras, Vid</t>
         </is>
@@ -15476,9 +17316,15 @@
         <v>8</v>
       </c>
       <c r="J307" t="n">
+        <v>0</v>
+      </c>
+      <c r="K307" t="n">
+        <v>0</v>
+      </c>
+      <c r="L307" t="n">
         <v>8</v>
       </c>
-      <c r="K307" t="inlineStr">
+      <c r="M307" t="inlineStr">
         <is>
           <t>Fot, Vid</t>
         </is>
@@ -15525,9 +17371,15 @@
         <v>1</v>
       </c>
       <c r="J308" t="n">
-        <v>1</v>
-      </c>
-      <c r="K308" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K308" t="n">
+        <v>0</v>
+      </c>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr">
         <is>
           <t>Ent</t>
         </is>
@@ -15564,7 +17416,7 @@
       </c>
       <c r="G309" t="inlineStr">
         <is>
-          <t>Omnívoro</t>
+          <t>Omn</t>
         </is>
       </c>
       <c r="H309" t="n">
@@ -15574,9 +17426,15 @@
         <v>12</v>
       </c>
       <c r="J309" t="n">
+        <v>0</v>
+      </c>
+      <c r="K309" t="n">
+        <v>0</v>
+      </c>
+      <c r="L309" t="n">
         <v>19</v>
       </c>
-      <c r="K309" t="inlineStr">
+      <c r="M309" t="inlineStr">
         <is>
           <t>Ent, Fot, Obs, Vid</t>
         </is>
